--- a/doc/Wyniki2.xlsx
+++ b/doc/Wyniki2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa0" sheetId="1" r:id="rId1"/>
     <sheet name="Mapa1" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mapa2" sheetId="3" r:id="rId3"/>
+    <sheet name="Mapa3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="15">
   <si>
     <t>Rozmiar grafu:</t>
   </si>
@@ -2746,30 +2747,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="Q4:AB4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AE3:AP3"/>
-    <mergeCell ref="AE4:AP4"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AE20:AP20"/>
-    <mergeCell ref="AE21:AP21"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN22:AP22"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="T22:V22"/>
     <mergeCell ref="W22:Y22"/>
@@ -2782,6 +2759,30 @@
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="Q20:AB20"/>
     <mergeCell ref="Q21:AB21"/>
+    <mergeCell ref="AE20:AP20"/>
+    <mergeCell ref="AE21:AP21"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="AE4:AP4"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:AB4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2790,15 +2791,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N33"/>
+  <dimension ref="B2:AQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="40" max="40" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:43">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2816,8 +2821,42 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="2:14">
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+    </row>
+    <row r="3" spans="2:43">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2835,8 +2874,42 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="2:14">
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+    </row>
+    <row r="4" spans="2:43">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2860,8 +2933,54 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+    </row>
+    <row r="5" spans="2:43">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -2898,190 +3017,582 @@
       <c r="N5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43">
       <c r="C6">
-        <v>11.01</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>714</v>
+        <v>875</v>
       </c>
       <c r="E6">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F6">
-        <v>13.01</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>840</v>
+        <v>1004</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I6">
-        <v>13.01</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>977</v>
+        <v>1080</v>
       </c>
       <c r="K6">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="L6">
-        <v>14.01</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>848</v>
+        <v>968</v>
       </c>
       <c r="N6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+        <v>119</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>3701</v>
+      </c>
+      <c r="S6">
+        <v>236</v>
+      </c>
+      <c r="T6">
+        <v>8.92</v>
+      </c>
+      <c r="U6">
+        <v>4401</v>
+      </c>
+      <c r="V6">
+        <v>236</v>
+      </c>
+      <c r="W6">
+        <v>11</v>
+      </c>
+      <c r="X6">
+        <v>5058</v>
+      </c>
+      <c r="Y6">
+        <v>236</v>
+      </c>
+      <c r="Z6">
+        <v>18.98</v>
+      </c>
+      <c r="AA6">
+        <v>4258</v>
+      </c>
+      <c r="AB6">
+        <v>236</v>
+      </c>
+      <c r="AF6">
+        <v>35.99</v>
+      </c>
+      <c r="AG6">
+        <v>14586</v>
+      </c>
+      <c r="AH6">
+        <v>472</v>
+      </c>
+      <c r="AI6">
+        <v>22.98</v>
+      </c>
+      <c r="AJ6">
+        <v>17437</v>
+      </c>
+      <c r="AK6">
+        <v>472</v>
+      </c>
+      <c r="AL6">
+        <v>38.99</v>
+      </c>
+      <c r="AM6">
+        <v>21131</v>
+      </c>
+      <c r="AN6">
+        <v>472</v>
+      </c>
+      <c r="AO6">
+        <v>22.98</v>
+      </c>
+      <c r="AP6">
+        <v>16806</v>
+      </c>
+      <c r="AQ6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>8.99</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="W7">
+        <v>16</v>
+      </c>
+      <c r="Z7">
+        <v>10.01</v>
+      </c>
+      <c r="AF7">
+        <v>21</v>
+      </c>
+      <c r="AI7">
+        <v>22.31</v>
+      </c>
+      <c r="AL7">
+        <v>46.03</v>
+      </c>
+      <c r="AO7">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4.01</v>
-      </c>
-      <c r="I8">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2.99</v>
+      </c>
+      <c r="T8">
+        <v>6.03</v>
+      </c>
+      <c r="W8">
+        <v>14.12</v>
+      </c>
+      <c r="Z8">
+        <v>15.01</v>
+      </c>
+      <c r="AF8">
+        <v>27.99</v>
+      </c>
+      <c r="AI8">
+        <v>20.92</v>
+      </c>
+      <c r="AL8">
+        <v>43</v>
+      </c>
+      <c r="AO8">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3.01</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>6.99</v>
+      </c>
+      <c r="AF9">
+        <v>29.89</v>
+      </c>
+      <c r="AI9">
+        <v>21.92</v>
+      </c>
+      <c r="AL9">
+        <v>27.92</v>
+      </c>
+      <c r="AO9">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>3.99</v>
+      </c>
+      <c r="T10">
+        <v>5.87</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AF10">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="AI10">
+        <v>34.04</v>
+      </c>
+      <c r="AL10">
+        <v>27.84</v>
+      </c>
+      <c r="AO10">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:43">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>7.05</v>
+      </c>
+      <c r="T11">
+        <v>5.61</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>23</v>
+      </c>
+      <c r="AI11">
+        <v>45.05</v>
+      </c>
+      <c r="AL11">
+        <v>29.99</v>
+      </c>
+      <c r="AO11">
+        <v>51.79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>28.93</v>
+      </c>
+      <c r="AI12">
+        <v>26.02</v>
+      </c>
+      <c r="AL12">
+        <v>28.96</v>
+      </c>
+      <c r="AO12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:43">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="C9">
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>7.99</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>43.04</v>
+      </c>
+      <c r="AI13">
+        <v>30.98</v>
+      </c>
+      <c r="AL13">
+        <v>54.03</v>
+      </c>
+      <c r="AO13">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="I10">
+      <c r="T14">
         <v>4</v>
       </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="C11">
-        <v>1.04</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="I14">
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
         <v>4</v>
       </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
+      <c r="AF14">
+        <v>37.93</v>
+      </c>
+      <c r="AI14">
+        <v>48.02</v>
+      </c>
+      <c r="AL14">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="AO14">
+        <v>32.93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:43">
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>4</v>
+      </c>
+      <c r="AF15">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="AI15">
+        <v>39.03</v>
+      </c>
+      <c r="AL15">
+        <v>64.09</v>
+      </c>
+      <c r="AO15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" ht="15">
       <c r="C16" s="1">
         <f>AVERAGE(C6:C15)</f>
-        <v>2.4049999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="1">
         <f>AVERAGE(F6:F15)</f>
-        <v>3.5019999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="I16" s="1">
         <f>AVERAGE(I6:I15)</f>
-        <v>4.1019999999999994</v>
+        <v>2.7</v>
       </c>
       <c r="L16" s="1">
         <f>AVERAGE(L6:L15)</f>
-        <v>3.5009999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
+        <v>1.4</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="T16" s="1">
+        <f>AVERAGE(T6:T15)</f>
+        <v>5.3490000000000002</v>
+      </c>
+      <c r="W16" s="1">
+        <f>AVERAGE(W6:W15)</f>
+        <v>9.0109999999999992</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>AVERAGE(Z6:Z15)</f>
+        <v>7.9990000000000006</v>
+      </c>
+      <c r="AF16" s="1">
+        <f>AVERAGE(AF6:AF15)</f>
+        <v>31.765999999999998</v>
+      </c>
+      <c r="AI16" s="1">
+        <f>AVERAGE(AI6:AI15)</f>
+        <v>31.126999999999999</v>
+      </c>
+      <c r="AL16" s="1">
+        <f>AVERAGE(AL6:AL15)</f>
+        <v>39.786999999999999</v>
+      </c>
+      <c r="AO16" s="1">
+        <f>AVERAGE(AO6:AO15)</f>
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -3099,8 +3610,42 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="P19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AE19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+    </row>
+    <row r="20" spans="2:43">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -3118,8 +3663,42 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+    </row>
+    <row r="21" spans="2:43">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -3143,8 +3722,54 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AE21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+    </row>
+    <row r="22" spans="2:43">
       <c r="C22" t="s">
         <v>8</v>
       </c>
@@ -3181,10 +3806,82 @@
       <c r="N22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43">
       <c r="C23">
-        <v>11.99</v>
+        <v>4.99</v>
       </c>
       <c r="D23">
         <v>934</v>
@@ -3192,158 +3889,3643 @@
       <c r="E23">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>1065</v>
+      </c>
+      <c r="H23">
+        <v>119</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>1195</v>
+      </c>
+      <c r="K23">
+        <v>119</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>1033</v>
+      </c>
+      <c r="N23">
+        <v>119</v>
+      </c>
+      <c r="Q23">
+        <v>9.98</v>
+      </c>
+      <c r="R23">
+        <v>3802</v>
+      </c>
+      <c r="S23">
+        <v>237</v>
+      </c>
+      <c r="T23">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <v>4386</v>
+      </c>
+      <c r="V23">
+        <v>237</v>
+      </c>
+      <c r="W23">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="X23">
+        <v>4991</v>
+      </c>
+      <c r="Y23">
+        <v>237</v>
+      </c>
+      <c r="Z23">
+        <v>8.01</v>
+      </c>
+      <c r="AA23">
+        <v>4203</v>
+      </c>
+      <c r="AB23">
+        <v>237</v>
+      </c>
+      <c r="AF23">
+        <v>28.01</v>
+      </c>
+      <c r="AG23">
+        <v>14586</v>
+      </c>
+      <c r="AH23">
+        <v>472</v>
+      </c>
+      <c r="AI23">
+        <v>30.01</v>
+      </c>
+      <c r="AJ23">
+        <v>17437</v>
+      </c>
+      <c r="AK23">
+        <v>472</v>
+      </c>
+      <c r="AL23">
+        <v>28.95</v>
+      </c>
+      <c r="AM23">
+        <v>21131</v>
+      </c>
+      <c r="AN23">
+        <v>472</v>
+      </c>
+      <c r="AO23">
+        <v>21.01</v>
+      </c>
+      <c r="AP23">
+        <v>16806</v>
+      </c>
+      <c r="AQ23">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43">
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="E24">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
+        <v>119</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1144</v>
+      </c>
+      <c r="H24">
+        <v>119</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1236</v>
+      </c>
+      <c r="K24">
+        <v>119</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1051</v>
+      </c>
+      <c r="N24">
+        <v>119</v>
+      </c>
+      <c r="Q24">
+        <v>5.98</v>
+      </c>
+      <c r="R24">
+        <v>3865</v>
+      </c>
+      <c r="S24">
+        <v>237</v>
+      </c>
+      <c r="T24">
+        <v>4.95</v>
+      </c>
+      <c r="U24">
+        <v>4565</v>
+      </c>
+      <c r="V24">
+        <v>237</v>
+      </c>
+      <c r="W24">
+        <v>5.58</v>
+      </c>
+      <c r="X24">
+        <v>5481</v>
+      </c>
+      <c r="Y24">
+        <v>237</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>4396</v>
+      </c>
+      <c r="AB24">
+        <v>237</v>
+      </c>
+      <c r="AF24">
+        <v>27.95</v>
+      </c>
+      <c r="AG24">
+        <v>14595</v>
+      </c>
+      <c r="AH24">
+        <v>472</v>
+      </c>
+      <c r="AI24">
+        <v>21.98</v>
+      </c>
+      <c r="AJ24">
+        <v>17685</v>
+      </c>
+      <c r="AK24">
+        <v>472</v>
+      </c>
+      <c r="AL24">
+        <v>28.98</v>
+      </c>
+      <c r="AM24">
+        <v>21828</v>
+      </c>
+      <c r="AN24">
+        <v>472</v>
+      </c>
+      <c r="AO24">
+        <v>20.98</v>
+      </c>
+      <c r="AP24">
+        <v>17421</v>
+      </c>
+      <c r="AQ24">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43">
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1030</v>
+        <v>987</v>
       </c>
       <c r="E25">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1160</v>
+      </c>
+      <c r="H25">
+        <v>119</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1359</v>
+      </c>
+      <c r="K25">
+        <v>119</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1166</v>
+      </c>
+      <c r="N25">
+        <v>119</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>3838</v>
+      </c>
+      <c r="S25">
+        <v>238</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>4722</v>
+      </c>
+      <c r="V25">
+        <v>239</v>
+      </c>
+      <c r="W25">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="X25">
+        <v>5890</v>
+      </c>
+      <c r="Y25">
+        <v>238</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
+      </c>
+      <c r="AA25">
+        <v>4635</v>
+      </c>
+      <c r="AB25">
+        <v>237</v>
+      </c>
+      <c r="AF25">
+        <v>25.97</v>
+      </c>
+      <c r="AG25">
+        <v>14677</v>
+      </c>
+      <c r="AH25">
+        <v>474</v>
+      </c>
+      <c r="AI25">
+        <v>22.99</v>
+      </c>
+      <c r="AJ25">
+        <v>17871</v>
+      </c>
+      <c r="AK25">
+        <v>472</v>
+      </c>
+      <c r="AL25">
+        <v>29.9</v>
+      </c>
+      <c r="AM25">
+        <v>22810</v>
+      </c>
+      <c r="AN25">
+        <v>472</v>
+      </c>
+      <c r="AO25">
+        <v>23.98</v>
+      </c>
+      <c r="AP25">
+        <v>18139</v>
+      </c>
+      <c r="AQ25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43">
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G26">
+        <v>1248</v>
+      </c>
+      <c r="H26">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1386</v>
+      </c>
+      <c r="K26">
+        <v>119</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1203</v>
+      </c>
+      <c r="N26">
+        <v>120</v>
+      </c>
+      <c r="Q26">
+        <v>4.82</v>
+      </c>
+      <c r="R26">
+        <v>3887</v>
+      </c>
+      <c r="S26">
+        <v>237</v>
+      </c>
+      <c r="T26">
+        <v>5.98</v>
+      </c>
+      <c r="U26">
+        <v>4851</v>
+      </c>
+      <c r="V26">
+        <v>238</v>
+      </c>
+      <c r="W26">
+        <v>9.98</v>
+      </c>
+      <c r="X26">
+        <v>6161</v>
+      </c>
+      <c r="Y26">
+        <v>237</v>
+      </c>
+      <c r="Z26">
+        <v>6.7</v>
+      </c>
+      <c r="AA26">
+        <v>4918</v>
+      </c>
+      <c r="AB26">
+        <v>238</v>
+      </c>
+      <c r="AF26">
+        <v>32</v>
+      </c>
+      <c r="AG26">
+        <v>14720</v>
+      </c>
+      <c r="AH26">
+        <v>474</v>
+      </c>
+      <c r="AI26">
+        <v>25</v>
+      </c>
+      <c r="AJ26">
+        <v>18108</v>
+      </c>
+      <c r="AK26">
+        <v>473</v>
+      </c>
+      <c r="AL26">
+        <v>62.01</v>
+      </c>
+      <c r="AM26">
+        <v>23756</v>
+      </c>
+      <c r="AN26">
+        <v>473</v>
+      </c>
+      <c r="AO26">
+        <v>23.96</v>
+      </c>
+      <c r="AP26">
+        <v>18914</v>
+      </c>
+      <c r="AQ26">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43">
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="E27">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1132</v>
+      </c>
+      <c r="H27">
+        <v>120</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1288</v>
+      </c>
+      <c r="K27">
+        <v>119</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1139</v>
+      </c>
+      <c r="N27">
+        <v>119</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>3895</v>
+      </c>
+      <c r="S27">
+        <v>240</v>
+      </c>
+      <c r="T27">
+        <v>9.75</v>
+      </c>
+      <c r="U27">
+        <v>5039</v>
+      </c>
+      <c r="V27">
+        <v>238</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>6424</v>
+      </c>
+      <c r="Y27">
+        <v>238</v>
+      </c>
+      <c r="Z27">
+        <v>7.29</v>
+      </c>
+      <c r="AA27">
+        <v>5109</v>
+      </c>
+      <c r="AB27">
+        <v>238</v>
+      </c>
+      <c r="AF27">
+        <v>32.99</v>
+      </c>
+      <c r="AG27">
+        <v>14781</v>
+      </c>
+      <c r="AH27">
+        <v>477</v>
+      </c>
+      <c r="AI27">
+        <v>53.04</v>
+      </c>
+      <c r="AJ27">
+        <v>18486</v>
+      </c>
+      <c r="AK27">
+        <v>473</v>
+      </c>
+      <c r="AL27">
+        <v>75.08</v>
+      </c>
+      <c r="AM27">
+        <v>24703</v>
+      </c>
+      <c r="AN27">
+        <v>473</v>
+      </c>
+      <c r="AO27">
+        <v>43.02</v>
+      </c>
+      <c r="AP27">
+        <v>19393</v>
+      </c>
+      <c r="AQ27">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43">
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1036</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1185</v>
+      </c>
+      <c r="H28">
+        <v>119</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1315</v>
+      </c>
+      <c r="K28">
+        <v>119</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1194</v>
+      </c>
+      <c r="N28">
+        <v>120</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>3994</v>
+      </c>
+      <c r="S28">
+        <v>238</v>
+      </c>
+      <c r="T28">
+        <v>9.6</v>
+      </c>
+      <c r="U28">
+        <v>5128</v>
+      </c>
+      <c r="V28">
+        <v>240</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>6805</v>
+      </c>
+      <c r="Y28">
+        <v>240</v>
+      </c>
+      <c r="Z28">
+        <v>7.01</v>
+      </c>
+      <c r="AA28">
+        <v>4875</v>
+      </c>
+      <c r="AB28">
+        <v>238</v>
+      </c>
+      <c r="AF28">
+        <v>46.96</v>
+      </c>
+      <c r="AG28">
+        <v>14800</v>
+      </c>
+      <c r="AH28">
+        <v>475</v>
+      </c>
+      <c r="AI28">
+        <v>44.03</v>
+      </c>
+      <c r="AJ28">
+        <v>18751</v>
+      </c>
+      <c r="AK28">
+        <v>476</v>
+      </c>
+      <c r="AL28">
+        <v>82.93</v>
+      </c>
+      <c r="AM28">
+        <v>26861</v>
+      </c>
+      <c r="AN28">
+        <v>474</v>
+      </c>
+      <c r="AO28">
+        <v>50.97</v>
+      </c>
+      <c r="AP28">
+        <v>19517</v>
+      </c>
+      <c r="AQ28">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1026</v>
+      </c>
+      <c r="E29">
+        <v>119</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
+      <c r="G29">
+        <v>1203</v>
+      </c>
+      <c r="H29">
+        <v>119</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1311</v>
+      </c>
+      <c r="K29">
+        <v>120</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1230</v>
+      </c>
+      <c r="N29">
+        <v>119</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>4037</v>
+      </c>
+      <c r="S29">
+        <v>241</v>
+      </c>
+      <c r="T29">
+        <v>11.01</v>
+      </c>
+      <c r="U29">
+        <v>5214</v>
+      </c>
+      <c r="V29">
+        <v>240</v>
+      </c>
+      <c r="W29">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="X29">
+        <v>6958</v>
+      </c>
+      <c r="Y29">
+        <v>241</v>
+      </c>
+      <c r="Z29">
+        <v>7.31</v>
+      </c>
+      <c r="AA29">
+        <v>5025</v>
+      </c>
+      <c r="AB29">
+        <v>238</v>
+      </c>
+      <c r="AF29">
+        <v>35.94</v>
+      </c>
+      <c r="AG29">
+        <v>14811</v>
+      </c>
+      <c r="AH29">
+        <v>479</v>
+      </c>
+      <c r="AI29">
+        <v>48.05</v>
+      </c>
+      <c r="AJ29">
+        <v>18871</v>
+      </c>
+      <c r="AK29">
+        <v>478</v>
+      </c>
+      <c r="AL29">
+        <v>81.96</v>
+      </c>
+      <c r="AM29">
+        <v>28344</v>
+      </c>
+      <c r="AN29">
+        <v>477</v>
+      </c>
+      <c r="AO29">
+        <v>51</v>
+      </c>
+      <c r="AP29">
+        <v>19670</v>
+      </c>
+      <c r="AQ29">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1015</v>
+      </c>
+      <c r="E30">
+        <v>121</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1257</v>
+      </c>
+      <c r="H30">
+        <v>121</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1466</v>
+      </c>
+      <c r="K30">
+        <v>119</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1271</v>
+      </c>
+      <c r="N30">
+        <v>121</v>
+      </c>
+      <c r="Q30">
+        <v>3.32</v>
+      </c>
+      <c r="R30">
+        <v>4074</v>
+      </c>
+      <c r="S30">
+        <v>237</v>
+      </c>
+      <c r="T30">
+        <v>12.99</v>
+      </c>
+      <c r="U30">
+        <v>5442</v>
+      </c>
+      <c r="V30">
+        <v>243</v>
+      </c>
+      <c r="W30">
+        <v>9</v>
+      </c>
+      <c r="X30">
+        <v>6488</v>
+      </c>
+      <c r="Y30">
+        <v>237</v>
+      </c>
+      <c r="Z30">
+        <v>8.01</v>
+      </c>
+      <c r="AA30">
+        <v>5406</v>
+      </c>
+      <c r="AB30">
+        <v>242</v>
+      </c>
+      <c r="AF30">
+        <v>31.04</v>
+      </c>
+      <c r="AG30">
+        <v>14917</v>
+      </c>
+      <c r="AH30">
+        <v>479</v>
+      </c>
+      <c r="AI30">
+        <v>59.04</v>
+      </c>
+      <c r="AJ30">
+        <v>19063</v>
+      </c>
+      <c r="AK30">
+        <v>480</v>
+      </c>
+      <c r="AL30">
+        <v>85</v>
+      </c>
+      <c r="AM30">
+        <v>29245</v>
+      </c>
+      <c r="AN30">
+        <v>478</v>
+      </c>
+      <c r="AO30">
+        <v>59.06</v>
+      </c>
+      <c r="AP30">
+        <v>19938</v>
+      </c>
+      <c r="AQ30">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1027</v>
+      </c>
+      <c r="E31">
+        <v>121</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1173</v>
+      </c>
+      <c r="H31">
+        <v>119</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1371</v>
+      </c>
+      <c r="K31">
+        <v>119</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1213</v>
+      </c>
+      <c r="N31">
+        <v>121</v>
+      </c>
+      <c r="Q31">
+        <v>3.72</v>
+      </c>
+      <c r="R31">
+        <v>4056</v>
+      </c>
+      <c r="S31">
+        <v>239</v>
+      </c>
+      <c r="T31">
+        <v>15.97</v>
+      </c>
+      <c r="U31">
+        <v>5092</v>
+      </c>
+      <c r="V31">
+        <v>239</v>
+      </c>
+      <c r="W31">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="X31">
+        <v>6197</v>
+      </c>
+      <c r="Y31">
+        <v>237</v>
+      </c>
+      <c r="Z31">
+        <v>6.77</v>
+      </c>
+      <c r="AA31">
+        <v>4984</v>
+      </c>
+      <c r="AB31">
+        <v>239</v>
+      </c>
+      <c r="AF31">
+        <v>39.06</v>
+      </c>
+      <c r="AG31">
+        <v>14996</v>
+      </c>
+      <c r="AH31">
+        <v>477</v>
+      </c>
+      <c r="AI31">
+        <v>50.04</v>
+      </c>
+      <c r="AJ31">
+        <v>19098</v>
+      </c>
+      <c r="AK31">
+        <v>476</v>
+      </c>
+      <c r="AL31">
+        <v>90.08</v>
+      </c>
+      <c r="AM31">
+        <v>28928</v>
+      </c>
+      <c r="AN31">
+        <v>474</v>
+      </c>
+      <c r="AO31">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="AP31">
+        <v>19778</v>
+      </c>
+      <c r="AQ31">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="2:43">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1067</v>
+      </c>
+      <c r="E32">
+        <v>119</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1202</v>
+      </c>
+      <c r="H32">
+        <v>121</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1394</v>
+      </c>
+      <c r="K32">
+        <v>121</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1208</v>
+      </c>
+      <c r="N32">
+        <v>119</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>4195</v>
+      </c>
+      <c r="S32">
+        <v>240</v>
+      </c>
+      <c r="T32">
+        <v>14.02</v>
+      </c>
+      <c r="U32">
+        <v>5117</v>
+      </c>
+      <c r="V32">
+        <v>238</v>
+      </c>
+      <c r="W32">
+        <v>8.02</v>
+      </c>
+      <c r="X32">
+        <v>6458</v>
+      </c>
+      <c r="Y32">
+        <v>238</v>
+      </c>
+      <c r="Z32">
+        <v>7.01</v>
+      </c>
+      <c r="AA32">
+        <v>5173</v>
+      </c>
+      <c r="AB32">
+        <v>237</v>
+      </c>
+      <c r="AF32">
+        <v>28.98</v>
+      </c>
+      <c r="AG32">
+        <v>15008</v>
+      </c>
+      <c r="AH32">
+        <v>482</v>
+      </c>
+      <c r="AI32">
+        <v>53.02</v>
+      </c>
+      <c r="AJ32">
+        <v>19333</v>
+      </c>
+      <c r="AK32">
+        <v>481</v>
+      </c>
+      <c r="AL32">
+        <v>95.06</v>
+      </c>
+      <c r="AM32">
+        <v>31192</v>
+      </c>
+      <c r="AN32">
+        <v>478</v>
+      </c>
+      <c r="AO32">
+        <v>56.02</v>
+      </c>
+      <c r="AP32">
+        <v>20000</v>
+      </c>
+      <c r="AQ32">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="3:43" ht="15">
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:N33" si="0">AVERAGE(C23:C32)</f>
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>1010.4</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>119.6</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>1176.9000000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>119.5</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>1332.1</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>119.3</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>1170.8</v>
+      </c>
+      <c r="N33" s="1">
+        <f>AVERAGE(N23:N32)</f>
+        <v>119.6</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" ref="Q33:AB33" si="1">AVERAGE(Q23:Q32)</f>
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="1"/>
+        <v>3964.3</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="1"/>
+        <v>238.4</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="1"/>
+        <v>9.827</v>
+      </c>
+      <c r="U33" s="1">
+        <f>AVERAGE(U24:U32)</f>
+        <v>5018.8888888888887</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="1"/>
+        <v>238.9</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8510000000000009</v>
+      </c>
+      <c r="X33" s="1">
+        <f t="shared" si="1"/>
+        <v>6185.3</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" si="1"/>
+        <v>4872.3999999999996</v>
+      </c>
+      <c r="AB33" s="1">
+        <f>AVERAGE(AB23:AB32)</f>
+        <v>238.1</v>
+      </c>
+      <c r="AF33" s="1">
+        <f>AVERAGE(AF23:AF32)</f>
+        <v>32.89</v>
+      </c>
+      <c r="AG33" s="1">
+        <f t="shared" ref="AF33:AQ33" si="2">AVERAGE(AG23:AG32)</f>
+        <v>14789.1</v>
+      </c>
+      <c r="AH33" s="1">
+        <f t="shared" si="2"/>
+        <v>476.1</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="2"/>
+        <v>40.720000000000006</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="2"/>
+        <v>18470.3</v>
+      </c>
+      <c r="AK33" s="1">
+        <f>AVERAGE(AK23:AK32)</f>
+        <v>475.3</v>
+      </c>
+      <c r="AL33" s="1">
+        <f t="shared" si="2"/>
+        <v>65.995000000000005</v>
+      </c>
+      <c r="AM33" s="1">
+        <f t="shared" si="2"/>
+        <v>25879.8</v>
+      </c>
+      <c r="AN33" s="1">
+        <f>AVERAGE(AN23:AN32)</f>
+        <v>474.3</v>
+      </c>
+      <c r="AO33" s="1">
+        <f t="shared" si="2"/>
+        <v>38.501999999999995</v>
+      </c>
+      <c r="AP33" s="1">
+        <f>AVERAGE(AP23:AP32)</f>
+        <v>18957.599999999999</v>
+      </c>
+      <c r="AQ33" s="1">
+        <f>AVERAGE(AQ23:AQ32)</f>
+        <v>473.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="AF2:AQ2"/>
+    <mergeCell ref="AF3:AQ3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AF19:AQ19"/>
+    <mergeCell ref="AF20:AQ20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AL21:AN21"/>
+    <mergeCell ref="AO21:AQ21"/>
+    <mergeCell ref="Q19:AB19"/>
+    <mergeCell ref="Q20:AB20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AP33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:42">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+    </row>
+    <row r="3" spans="2:42">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="2:42">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+    </row>
+    <row r="5" spans="2:42">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1105</v>
+      </c>
+      <c r="E6">
+        <v>117</v>
+      </c>
+      <c r="F6">
+        <v>4.97</v>
+      </c>
+      <c r="G6">
+        <v>1163</v>
+      </c>
+      <c r="H6">
+        <v>117</v>
+      </c>
+      <c r="I6">
+        <v>4.99</v>
+      </c>
+      <c r="J6">
+        <v>1218</v>
+      </c>
+      <c r="K6">
+        <v>117</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>1142</v>
+      </c>
+      <c r="N6">
+        <v>117</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>4519</v>
+      </c>
+      <c r="S6">
+        <v>231</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <v>4946</v>
+      </c>
+      <c r="V6">
+        <v>231</v>
+      </c>
+      <c r="W6">
+        <v>10.94</v>
+      </c>
+      <c r="X6">
+        <v>5568</v>
+      </c>
+      <c r="Y6">
+        <v>231</v>
+      </c>
+      <c r="Z6">
+        <v>8.99</v>
+      </c>
+      <c r="AA6">
+        <v>5166</v>
+      </c>
+      <c r="AB6">
+        <v>231</v>
+      </c>
+      <c r="AE6">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>17791</v>
+      </c>
+      <c r="AG6">
+        <v>461</v>
+      </c>
+      <c r="AH6">
+        <v>25.93</v>
+      </c>
+      <c r="AI6">
+        <v>20224</v>
+      </c>
+      <c r="AJ6">
+        <v>461</v>
+      </c>
+      <c r="AK6">
+        <v>58.9</v>
+      </c>
+      <c r="AL6">
+        <v>23799</v>
+      </c>
+      <c r="AM6">
+        <v>461</v>
+      </c>
+      <c r="AN6">
+        <v>75.02</v>
+      </c>
+      <c r="AO6">
+        <v>20864</v>
+      </c>
+      <c r="AP6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2.99</v>
+      </c>
+      <c r="Q7">
+        <v>6.21</v>
+      </c>
+      <c r="T7">
+        <v>6.98</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>25.95</v>
+      </c>
+      <c r="AH7">
+        <v>26.98</v>
+      </c>
+      <c r="AK7">
+        <v>47.97</v>
+      </c>
+      <c r="AN7">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.97</v>
+      </c>
+      <c r="L8">
+        <v>0.99</v>
+      </c>
+      <c r="Q8">
+        <v>5.17</v>
+      </c>
+      <c r="T8">
+        <v>5.99</v>
+      </c>
+      <c r="W8">
+        <v>7.99</v>
+      </c>
+      <c r="Z8">
+        <v>12</v>
+      </c>
+      <c r="AE8">
+        <v>42</v>
+      </c>
+      <c r="AH8">
+        <v>24.95</v>
+      </c>
+      <c r="AK8">
+        <v>70.87</v>
+      </c>
+      <c r="AN8">
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>4.99</v>
+      </c>
+      <c r="T9">
+        <v>6.99</v>
+      </c>
+      <c r="W9">
+        <v>7.99</v>
+      </c>
+      <c r="Z9">
+        <v>11.01</v>
+      </c>
+      <c r="AE9">
+        <v>25.03</v>
+      </c>
+      <c r="AH9">
+        <v>46.98</v>
+      </c>
+      <c r="AK9">
+        <v>60.97</v>
+      </c>
+      <c r="AN9">
+        <v>53.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42">
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>6.98</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>12.01</v>
+      </c>
+      <c r="AE10">
+        <v>38.01</v>
+      </c>
+      <c r="AH10">
+        <v>49.06</v>
+      </c>
+      <c r="AK10">
+        <v>80.03</v>
+      </c>
+      <c r="AN10">
+        <v>58.03</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>7.01</v>
+      </c>
+      <c r="Z11">
+        <v>13</v>
+      </c>
+      <c r="AE11">
+        <v>34.03</v>
+      </c>
+      <c r="AH11">
+        <v>57.98</v>
+      </c>
+      <c r="AK11">
+        <v>72.88</v>
+      </c>
+      <c r="AN11">
+        <v>65.010000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>7.96</v>
+      </c>
+      <c r="Z12">
+        <v>15.01</v>
+      </c>
+      <c r="AE12">
+        <v>38.01</v>
+      </c>
+      <c r="AH12">
+        <v>59.93</v>
+      </c>
+      <c r="AK12">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="AN12">
+        <v>42.03</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42">
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>4.01</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>6.99</v>
+      </c>
+      <c r="Z13">
+        <v>7.98</v>
+      </c>
+      <c r="AE13">
+        <v>36.99</v>
+      </c>
+      <c r="AH13">
+        <v>57.96</v>
+      </c>
+      <c r="AK13">
+        <v>79.03</v>
+      </c>
+      <c r="AN13">
+        <v>28.96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>5.01</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AE14">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="AH14">
+        <v>48.9</v>
+      </c>
+      <c r="AK14">
+        <v>70.930000000000007</v>
+      </c>
+      <c r="AN14">
+        <v>71.98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>5.01</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>5.91</v>
+      </c>
+      <c r="AE15">
+        <v>38.04</v>
+      </c>
+      <c r="AH15">
+        <v>28.02</v>
+      </c>
+      <c r="AK15">
+        <v>61.05</v>
+      </c>
+      <c r="AN15">
+        <v>53.02</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="15">
+      <c r="C16" s="1">
+        <f>AVERAGE(C6:C15)</f>
+        <v>1.58</v>
+      </c>
+      <c r="F16" s="1">
+        <f>AVERAGE(F6:F15)</f>
+        <v>1.597</v>
+      </c>
+      <c r="I16" s="1">
+        <f>AVERAGE(I6:I15)</f>
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <f>AVERAGE(L6:L15)</f>
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>4.9390000000000001</v>
+      </c>
+      <c r="T16" s="1">
+        <f>AVERAGE(T7:T15)</f>
+        <v>5.8833333333333329</v>
+      </c>
+      <c r="W16" s="1">
+        <f>AVERAGE(W6:W15)</f>
+        <v>7.4879999999999995</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>AVERAGE(Z6:Z15)</f>
+        <v>10.291</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>AVERAGE(AE6:AE15)</f>
+        <v>33.410000000000004</v>
+      </c>
+      <c r="AH16" s="1">
+        <f>AVERAGE(AH6:AH15)</f>
+        <v>42.668999999999997</v>
+      </c>
+      <c r="AK16" s="1">
+        <f>AVERAGE(AK6:AK15)</f>
+        <v>67.367000000000004</v>
+      </c>
+      <c r="AN16" s="1">
+        <f>AVERAGE(AN6:AN15)</f>
+        <v>51.815999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="P19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AD19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+    </row>
+    <row r="20" spans="2:42">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+    </row>
+    <row r="21" spans="2:42">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AD21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+    </row>
+    <row r="22" spans="2:42">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42">
+      <c r="C23">
+        <v>11.01</v>
+      </c>
+      <c r="D23">
+        <v>1129</v>
+      </c>
+      <c r="E23">
+        <v>117</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1182</v>
+      </c>
+      <c r="H23">
+        <v>117</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>1250</v>
+      </c>
+      <c r="K23">
+        <v>117</v>
+      </c>
+      <c r="L23">
+        <v>5.01</v>
+      </c>
+      <c r="M23">
+        <v>1160</v>
+      </c>
+      <c r="N23">
+        <v>117</v>
+      </c>
+      <c r="Q23">
+        <v>7.99</v>
+      </c>
+      <c r="R23">
+        <v>4575</v>
+      </c>
+      <c r="S23">
+        <v>231</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="U23">
+        <v>4980</v>
+      </c>
+      <c r="V23">
+        <v>231</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>5607</v>
+      </c>
+      <c r="Y23">
+        <v>231</v>
+      </c>
+      <c r="Z23">
+        <v>8.99</v>
+      </c>
+      <c r="AA23">
+        <v>5097</v>
+      </c>
+      <c r="AB23">
+        <v>231</v>
+      </c>
+      <c r="AE23">
+        <v>20.99</v>
+      </c>
+      <c r="AF23">
+        <v>17791</v>
+      </c>
+      <c r="AG23">
+        <v>461</v>
+      </c>
+      <c r="AH23">
+        <v>28.87</v>
+      </c>
+      <c r="AI23">
+        <v>20224</v>
+      </c>
+      <c r="AJ23">
+        <v>461</v>
+      </c>
+      <c r="AK23">
+        <v>39.99</v>
+      </c>
+      <c r="AL23">
+        <v>23799</v>
+      </c>
+      <c r="AM23">
+        <v>461</v>
+      </c>
+      <c r="AN23">
+        <v>27.98</v>
+      </c>
+      <c r="AO23">
+        <v>20864</v>
+      </c>
+      <c r="AP23">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24">
+        <v>117</v>
+      </c>
+      <c r="F24">
+        <v>0.99</v>
+      </c>
+      <c r="G24">
+        <v>1274</v>
+      </c>
+      <c r="H24">
+        <v>117</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>1572</v>
+      </c>
+      <c r="K24">
+        <v>117</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1227</v>
+      </c>
+      <c r="N24">
+        <v>117</v>
+      </c>
+      <c r="Q24">
+        <v>5.12</v>
+      </c>
+      <c r="R24">
+        <v>4668</v>
+      </c>
+      <c r="S24">
+        <v>231</v>
+      </c>
+      <c r="T24">
+        <v>6.99</v>
+      </c>
+      <c r="U24">
+        <v>5173</v>
+      </c>
+      <c r="V24">
+        <v>231</v>
+      </c>
+      <c r="W24">
+        <v>8.99</v>
+      </c>
+      <c r="X24">
+        <v>7006</v>
+      </c>
+      <c r="Y24">
+        <v>231</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AA24">
+        <v>5211</v>
+      </c>
+      <c r="AB24">
+        <v>231</v>
+      </c>
+      <c r="AE24">
+        <v>24.91</v>
+      </c>
+      <c r="AF24">
+        <v>17962</v>
+      </c>
+      <c r="AG24">
+        <v>467</v>
+      </c>
+      <c r="AH24">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="AI24">
+        <v>20420</v>
+      </c>
+      <c r="AJ24">
+        <v>467</v>
+      </c>
+      <c r="AK24">
+        <v>31.92</v>
+      </c>
+      <c r="AL24">
+        <v>25941</v>
+      </c>
+      <c r="AM24">
+        <v>466</v>
+      </c>
+      <c r="AN24">
+        <v>40.04</v>
+      </c>
+      <c r="AO24">
+        <v>21023</v>
+      </c>
+      <c r="AP24">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1222</v>
+      </c>
+      <c r="E25">
+        <v>117</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>1295</v>
+      </c>
+      <c r="H25">
+        <v>118</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1611</v>
+      </c>
+      <c r="K25">
+        <v>117</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1286</v>
+      </c>
+      <c r="N25">
+        <v>117</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>4739</v>
+      </c>
+      <c r="S25">
+        <v>233</v>
+      </c>
+      <c r="T25">
+        <v>6.97</v>
+      </c>
+      <c r="U25">
+        <v>5215</v>
+      </c>
+      <c r="V25">
+        <v>234</v>
+      </c>
+      <c r="W25">
+        <v>11.01</v>
+      </c>
+      <c r="X25">
+        <v>7050</v>
+      </c>
+      <c r="Y25">
+        <v>235</v>
+      </c>
+      <c r="Z25">
+        <v>9</v>
+      </c>
+      <c r="AA25">
+        <v>5314</v>
+      </c>
+      <c r="AB25">
+        <v>235</v>
+      </c>
+      <c r="AE25">
+        <v>29.99</v>
+      </c>
+      <c r="AF25">
+        <v>18029</v>
+      </c>
+      <c r="AG25">
+        <v>466</v>
+      </c>
+      <c r="AH25">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="AI25">
+        <v>20613</v>
+      </c>
+      <c r="AJ25">
+        <v>466</v>
+      </c>
+      <c r="AK25">
+        <v>63.93</v>
+      </c>
+      <c r="AL25">
+        <v>28172</v>
+      </c>
+      <c r="AM25">
+        <v>470</v>
+      </c>
+      <c r="AN25">
+        <v>64.14</v>
+      </c>
+      <c r="AO25">
+        <v>21237</v>
+      </c>
+      <c r="AP25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1241</v>
+      </c>
+      <c r="E26">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1326</v>
+      </c>
+      <c r="H26">
+        <v>118</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1438</v>
+      </c>
+      <c r="K26">
+        <v>119</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1291</v>
+      </c>
+      <c r="N26">
+        <v>119</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="R26">
+        <v>4776</v>
+      </c>
+      <c r="S26">
+        <v>235</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>5447</v>
+      </c>
+      <c r="V26">
+        <v>233</v>
+      </c>
+      <c r="W26">
+        <v>8.98</v>
+      </c>
+      <c r="X26">
+        <v>7182</v>
+      </c>
+      <c r="Y26">
+        <v>235</v>
+      </c>
+      <c r="Z26">
+        <v>7.98</v>
+      </c>
+      <c r="AA26">
+        <v>5522</v>
+      </c>
+      <c r="AB26">
+        <v>234</v>
+      </c>
+      <c r="AE26">
+        <v>46.03</v>
+      </c>
+      <c r="AF26">
+        <v>18104</v>
+      </c>
+      <c r="AG26">
+        <v>468</v>
+      </c>
+      <c r="AH26">
+        <v>54.92</v>
+      </c>
+      <c r="AI26">
+        <v>21266</v>
+      </c>
+      <c r="AJ26">
+        <v>473</v>
+      </c>
+      <c r="AK26">
+        <v>81.08</v>
+      </c>
+      <c r="AL26">
+        <v>29453</v>
+      </c>
+      <c r="AM26">
+        <v>471</v>
+      </c>
+      <c r="AN26">
+        <v>47.05</v>
+      </c>
+      <c r="AO26">
+        <v>21434</v>
+      </c>
+      <c r="AP26">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1238</v>
+      </c>
+      <c r="E27">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1323</v>
+      </c>
+      <c r="H27">
+        <v>119</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1710</v>
+      </c>
+      <c r="K27">
+        <v>119</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1318</v>
+      </c>
+      <c r="N27">
+        <v>118</v>
+      </c>
+      <c r="Q27">
+        <v>6.01</v>
+      </c>
+      <c r="R27">
+        <v>4888</v>
+      </c>
+      <c r="S27">
+        <v>236</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>5535</v>
+      </c>
+      <c r="V27">
+        <v>234</v>
+      </c>
+      <c r="W27">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="X27">
+        <v>6983</v>
+      </c>
+      <c r="Y27">
+        <v>235</v>
+      </c>
+      <c r="Z27">
+        <v>7.99</v>
+      </c>
+      <c r="AA27">
+        <v>5594</v>
+      </c>
+      <c r="AB27">
+        <v>236</v>
+      </c>
+      <c r="AE27">
+        <v>33.97</v>
+      </c>
+      <c r="AF27">
+        <v>18258</v>
+      </c>
+      <c r="AG27">
+        <v>472</v>
+      </c>
+      <c r="AH27">
+        <v>60.95</v>
+      </c>
+      <c r="AI27">
+        <v>21508</v>
+      </c>
+      <c r="AJ27">
+        <v>472</v>
+      </c>
+      <c r="AK27">
+        <v>50.89</v>
+      </c>
+      <c r="AL27">
+        <v>28984</v>
+      </c>
+      <c r="AM27">
+        <v>475</v>
+      </c>
+      <c r="AN27">
+        <v>42.98</v>
+      </c>
+      <c r="AO27">
+        <v>21821</v>
+      </c>
+      <c r="AP27">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42">
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="D28">
-        <v>1028</v>
+        <v>1279</v>
       </c>
       <c r="E28">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="2:14">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1369</v>
+      </c>
+      <c r="H28">
+        <v>120</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>1683</v>
+      </c>
+      <c r="K28">
+        <v>120</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1326</v>
+      </c>
+      <c r="N28">
+        <v>118</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>4929</v>
+      </c>
+      <c r="S28">
+        <v>235</v>
+      </c>
+      <c r="T28">
+        <v>7.99</v>
+      </c>
+      <c r="U28">
+        <v>5747</v>
+      </c>
+      <c r="V28">
+        <v>237</v>
+      </c>
+      <c r="W28">
+        <v>10.01</v>
+      </c>
+      <c r="X28">
+        <v>6947</v>
+      </c>
+      <c r="Y28">
+        <v>240</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>5667</v>
+      </c>
+      <c r="AB28">
+        <v>236</v>
+      </c>
+      <c r="AE28">
+        <v>46.97</v>
+      </c>
+      <c r="AF28">
+        <v>18391</v>
+      </c>
+      <c r="AG28">
+        <v>477</v>
+      </c>
+      <c r="AH28">
+        <v>64.87</v>
+      </c>
+      <c r="AI28">
+        <v>21660</v>
+      </c>
+      <c r="AJ28">
+        <v>476</v>
+      </c>
+      <c r="AK28">
+        <v>40.92</v>
+      </c>
+      <c r="AL28">
+        <v>28910</v>
+      </c>
+      <c r="AM28">
+        <v>480</v>
+      </c>
+      <c r="AN28">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="AO28">
+        <v>22163</v>
+      </c>
+      <c r="AP28">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42">
       <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1249</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>1028</v>
-      </c>
-      <c r="E29">
+      <c r="G29">
+        <v>1483</v>
+      </c>
+      <c r="H29">
+        <v>117</v>
+      </c>
+      <c r="I29">
+        <v>4.01</v>
+      </c>
+      <c r="J29">
+        <v>1518</v>
+      </c>
+      <c r="K29">
+        <v>118</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1326</v>
+      </c>
+      <c r="N29">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="2:14">
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>4984</v>
+      </c>
+      <c r="S29">
+        <v>234</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>5989</v>
+      </c>
+      <c r="V29">
+        <v>235</v>
+      </c>
+      <c r="W29">
+        <v>10.01</v>
+      </c>
+      <c r="X29">
+        <v>7018</v>
+      </c>
+      <c r="Y29">
+        <v>241</v>
+      </c>
+      <c r="Z29">
+        <v>13</v>
+      </c>
+      <c r="AA29">
+        <v>6034</v>
+      </c>
+      <c r="AB29">
+        <v>234</v>
+      </c>
+      <c r="AE29">
+        <v>36.01</v>
+      </c>
+      <c r="AF29">
+        <v>18499</v>
+      </c>
+      <c r="AG29">
+        <v>475</v>
+      </c>
+      <c r="AH29">
+        <v>68.94</v>
+      </c>
+      <c r="AI29">
+        <v>22038</v>
+      </c>
+      <c r="AJ29">
+        <v>475</v>
+      </c>
+      <c r="AK29">
+        <v>73.94</v>
+      </c>
+      <c r="AL29">
+        <v>29667</v>
+      </c>
+      <c r="AM29">
+        <v>477</v>
+      </c>
+      <c r="AN29">
+        <v>69.08</v>
+      </c>
+      <c r="AO29">
+        <v>22393</v>
+      </c>
+      <c r="AP29">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42">
       <c r="C30">
-        <v>2</v>
+        <v>0.99</v>
       </c>
       <c r="D30">
-        <v>1008</v>
+        <v>1285</v>
       </c>
       <c r="E30">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="2:14">
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1557</v>
+      </c>
+      <c r="H30">
+        <v>121</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>1630</v>
+      </c>
+      <c r="K30">
+        <v>119</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1384</v>
+      </c>
+      <c r="N30">
+        <v>119</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>5015</v>
+      </c>
+      <c r="S30">
+        <v>242</v>
+      </c>
+      <c r="T30">
+        <v>7</v>
+      </c>
+      <c r="U30">
+        <v>6321</v>
+      </c>
+      <c r="V30">
+        <v>238</v>
+      </c>
+      <c r="W30">
+        <v>18.02</v>
+      </c>
+      <c r="X30">
+        <v>7676</v>
+      </c>
+      <c r="Y30">
+        <v>234</v>
+      </c>
+      <c r="Z30">
+        <v>14.98</v>
+      </c>
+      <c r="AA30">
+        <v>6362</v>
+      </c>
+      <c r="AB30">
+        <v>241</v>
+      </c>
+      <c r="AE30">
+        <v>57.02</v>
+      </c>
+      <c r="AF30">
+        <v>18575</v>
+      </c>
+      <c r="AG30">
+        <v>477</v>
+      </c>
+      <c r="AH30">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="AI30">
+        <v>22968</v>
+      </c>
+      <c r="AJ30">
+        <v>485</v>
+      </c>
+      <c r="AK30">
+        <v>58.04</v>
+      </c>
+      <c r="AL30">
+        <v>30025</v>
+      </c>
+      <c r="AM30">
+        <v>489</v>
+      </c>
+      <c r="AN30">
+        <v>35.01</v>
+      </c>
+      <c r="AO30">
+        <v>22856</v>
+      </c>
+      <c r="AP30">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42">
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>1025</v>
+        <v>1272</v>
       </c>
       <c r="E31">
+        <v>131</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>1496</v>
+      </c>
+      <c r="H31">
+        <v>131</v>
+      </c>
+      <c r="I31">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J31">
+        <v>1770</v>
+      </c>
+      <c r="K31">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="2:14">
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1479</v>
+      </c>
+      <c r="N31">
+        <v>118</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>5034</v>
+      </c>
+      <c r="S31">
+        <v>260</v>
+      </c>
+      <c r="T31">
+        <v>5.98</v>
+      </c>
+      <c r="U31">
+        <v>6534</v>
+      </c>
+      <c r="V31">
+        <v>260</v>
+      </c>
+      <c r="W31">
+        <v>13.02</v>
+      </c>
+      <c r="X31">
+        <v>7801</v>
+      </c>
+      <c r="Y31">
+        <v>236</v>
+      </c>
+      <c r="Z31">
+        <v>14.01</v>
+      </c>
+      <c r="AA31">
+        <v>6382</v>
+      </c>
+      <c r="AB31">
+        <v>260</v>
+      </c>
+      <c r="AE31">
+        <v>36.99</v>
+      </c>
+      <c r="AF31">
+        <v>18722</v>
+      </c>
+      <c r="AG31">
+        <v>480</v>
+      </c>
+      <c r="AH31">
+        <v>60.95</v>
+      </c>
+      <c r="AI31">
+        <v>24997</v>
+      </c>
+      <c r="AJ31">
+        <v>486</v>
+      </c>
+      <c r="AK31">
+        <v>88.07</v>
+      </c>
+      <c r="AL31">
+        <v>30739</v>
+      </c>
+      <c r="AM31">
+        <v>489</v>
+      </c>
+      <c r="AN31">
+        <v>39.86</v>
+      </c>
+      <c r="AO31">
+        <v>22958</v>
+      </c>
+      <c r="AP31">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42">
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>1083</v>
+        <v>1324</v>
       </c>
       <c r="E32">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="15">
+        <v>120</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1588</v>
+      </c>
+      <c r="H32">
+        <v>122</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1558</v>
+      </c>
+      <c r="K32">
+        <v>122</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1466</v>
+      </c>
+      <c r="N32">
+        <v>131</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>5095</v>
+      </c>
+      <c r="S32">
+        <v>241</v>
+      </c>
+      <c r="T32">
+        <v>7</v>
+      </c>
+      <c r="U32">
+        <v>6072</v>
+      </c>
+      <c r="V32">
+        <v>245</v>
+      </c>
+      <c r="W32">
+        <v>15.02</v>
+      </c>
+      <c r="X32">
+        <v>7174</v>
+      </c>
+      <c r="Y32">
+        <v>239</v>
+      </c>
+      <c r="Z32">
+        <v>13.99</v>
+      </c>
+      <c r="AA32">
+        <v>6420</v>
+      </c>
+      <c r="AB32">
+        <v>241</v>
+      </c>
+      <c r="AE32">
+        <v>43.99</v>
+      </c>
+      <c r="AF32">
+        <v>18773</v>
+      </c>
+      <c r="AG32">
+        <v>482</v>
+      </c>
+      <c r="AH32">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="AI32">
+        <v>25768</v>
+      </c>
+      <c r="AJ32">
+        <v>487</v>
+      </c>
+      <c r="AK32">
+        <v>127.57</v>
+      </c>
+      <c r="AL32">
+        <v>43759</v>
+      </c>
+      <c r="AM32">
+        <v>489</v>
+      </c>
+      <c r="AN32">
+        <v>47.04</v>
+      </c>
+      <c r="AO32">
+        <v>24084</v>
+      </c>
+      <c r="AP32">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="3:42" ht="15">
       <c r="C33" s="1">
         <f t="shared" ref="C33:N33" si="0">AVERAGE(C23:C32)</f>
-        <v>3.1990000000000003</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>1012.8</v>
+        <v>1244.3</v>
       </c>
       <c r="E33" s="1">
+        <f>AVERAGE(E23:E32)</f>
+        <v>119.5</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="F33" s="1" t="e">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="1" t="e">
+        <v>1389.3</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="1" t="e">
+        <v>120</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="1" t="e">
+        <v>2.9029999999999996</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="1" t="e">
+        <v>1574</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="1" t="e">
+        <v>118.7</v>
+      </c>
+      <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="1" t="e">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="M33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1326.3</v>
+      </c>
+      <c r="N33" s="1">
+        <f>AVERAGE(N23:N32)</f>
+        <v>119.3</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" ref="Q33:AB33" si="1">AVERAGE(Q23:Q32)</f>
+        <v>5.9119999999999999</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="1"/>
+        <v>4870.3</v>
+      </c>
+      <c r="S33" s="1">
+        <f>AVERAGE(S23:S32)</f>
+        <v>237.8</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" ref="T33:AB33" si="2">AVERAGE(T23:T32)</f>
+        <v>7.293000000000001</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="2"/>
+        <v>5701.3</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="2"/>
+        <v>237.8</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="2"/>
+        <v>11.501999999999999</v>
+      </c>
+      <c r="X33" s="1">
+        <f t="shared" si="2"/>
+        <v>7044.4</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="2"/>
+        <v>235.7</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="2"/>
+        <v>10.294</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" si="2"/>
+        <v>5760.3</v>
+      </c>
+      <c r="AB33" s="1">
+        <f>AVERAGE(AB23:AB32)</f>
+        <v>237.9</v>
+      </c>
+      <c r="AE33" s="1">
+        <f t="shared" ref="AE33:AP33" si="3">AVERAGE(AE23:AE32)</f>
+        <v>37.686999999999998</v>
+      </c>
+      <c r="AF33" s="1">
+        <f t="shared" si="3"/>
+        <v>18310.400000000001</v>
+      </c>
+      <c r="AG33" s="1">
+        <f>AVERAGE(AG23:AG32)</f>
+        <v>472.5</v>
+      </c>
+      <c r="AH33" s="1">
+        <f t="shared" ref="AH33:AP33" si="4">AVERAGE(AH23:AH32)</f>
+        <v>57.031999999999996</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="4"/>
+        <v>22146.2</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="4"/>
+        <v>474.8</v>
+      </c>
+      <c r="AK33" s="1">
+        <f>AVERAGE(AK24:AK32)</f>
+        <v>68.484444444444449</v>
+      </c>
+      <c r="AL33" s="1">
+        <f t="shared" si="4"/>
+        <v>29944.9</v>
+      </c>
+      <c r="AM33" s="1">
+        <f t="shared" si="4"/>
+        <v>476.7</v>
+      </c>
+      <c r="AN33" s="1">
+        <f t="shared" si="4"/>
+        <v>44.622999999999998</v>
+      </c>
+      <c r="AO33" s="1">
+        <f t="shared" si="4"/>
+        <v>22083.3</v>
+      </c>
+      <c r="AP33" s="1">
+        <f>AVERAGE(AP23:AP32)</f>
+        <v>474.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="36">
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AE19:AP19"/>
+    <mergeCell ref="AE20:AP20"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="Q19:AB19"/>
+    <mergeCell ref="Q20:AB20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="C19:N19"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="C21:E21"/>
@@ -3361,14 +7543,301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15">
+      <c r="C16" s="1" t="e">
+        <f>AVERAGE(C6:C15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="1" t="e">
+        <f>AVERAGE(F6:F15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="1" t="e">
+        <f>AVERAGE(I6:I15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="1" t="e">
+        <f>AVERAGE(L6:L15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15">
+      <c r="C32" s="1" t="e">
+        <f t="shared" ref="C32:N32" si="0">AVERAGE(C22:C31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="1" t="e">
+        <f>AVERAGE(E22:E31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="1" t="e">
+        <f>AVERAGE(N22:N31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Wyniki2.xlsx
+++ b/doc/Wyniki2.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa0" sheetId="1" r:id="rId1"/>
     <sheet name="Mapa1" sheetId="2" r:id="rId2"/>
     <sheet name="Mapa2" sheetId="3" r:id="rId3"/>
     <sheet name="Mapa3" sheetId="4" r:id="rId4"/>
+    <sheet name="Mapa4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="15">
   <si>
     <t>Rozmiar grafu:</t>
   </si>
@@ -2793,7 +2795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AQ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="X10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N33"/>
     </sheetView>
   </sheetViews>
@@ -4981,7 +4983,7 @@
     </row>
     <row r="33" spans="3:43" ht="15">
       <c r="C33" s="1">
-        <f t="shared" ref="C33:N33" si="0">AVERAGE(C23:C32)</f>
+        <f t="shared" ref="C33:M33" si="0">AVERAGE(C23:C32)</f>
         <v>1.4990000000000001</v>
       </c>
       <c r="D33" s="1">
@@ -5029,7 +5031,7 @@
         <v>119.6</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" ref="Q33:AB33" si="1">AVERAGE(Q23:Q32)</f>
+        <f t="shared" ref="Q33:AA33" si="1">AVERAGE(Q23:Q32)</f>
         <v>4.8819999999999997</v>
       </c>
       <c r="R33" s="1">
@@ -5081,7 +5083,7 @@
         <v>32.89</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" ref="AF33:AQ33" si="2">AVERAGE(AG23:AG32)</f>
+        <f t="shared" ref="AG33:AO33" si="2">AVERAGE(AG23:AG32)</f>
         <v>14789.1</v>
       </c>
       <c r="AH33" s="1">
@@ -5172,7 +5174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="Y13" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7356,7 +7358,7 @@
     </row>
     <row r="33" spans="3:42" ht="15">
       <c r="C33" s="1">
-        <f t="shared" ref="C33:N33" si="0">AVERAGE(C23:C32)</f>
+        <f t="shared" ref="C33:M33" si="0">AVERAGE(C23:C32)</f>
         <v>2.4999999999999996</v>
       </c>
       <c r="D33" s="1">
@@ -7404,7 +7406,7 @@
         <v>119.3</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" ref="Q33:AB33" si="1">AVERAGE(Q23:Q32)</f>
+        <f t="shared" ref="Q33:R33" si="1">AVERAGE(Q23:Q32)</f>
         <v>5.9119999999999999</v>
       </c>
       <c r="R33" s="1">
@@ -7416,7 +7418,7 @@
         <v>237.8</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" ref="T33:AB33" si="2">AVERAGE(T23:T32)</f>
+        <f t="shared" ref="T33:AA33" si="2">AVERAGE(T23:T32)</f>
         <v>7.293000000000001</v>
       </c>
       <c r="U33" s="1">
@@ -7452,7 +7454,7 @@
         <v>237.9</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" ref="AE33:AP33" si="3">AVERAGE(AE23:AE32)</f>
+        <f t="shared" ref="AE33:AF33" si="3">AVERAGE(AE23:AE32)</f>
         <v>37.686999999999998</v>
       </c>
       <c r="AF33" s="1">
@@ -7464,7 +7466,7 @@
         <v>472.5</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" ref="AH33:AP33" si="4">AVERAGE(AH23:AH32)</f>
+        <f t="shared" ref="AH33:AO33" si="4">AVERAGE(AH23:AH32)</f>
         <v>57.031999999999996</v>
       </c>
       <c r="AI33" s="1">
@@ -7545,15 +7547,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N32"/>
+  <dimension ref="B2:AP32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:42">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7571,8 +7573,41 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="2:14">
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+    </row>
+    <row r="3" spans="2:42">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7590,8 +7625,42 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="2:14">
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -7615,8 +7684,54 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+    </row>
+    <row r="5" spans="2:42">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -7653,26 +7768,582 @@
       <c r="N5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="15">
-      <c r="C16" s="1" t="e">
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42">
+      <c r="C6">
+        <v>3.93</v>
+      </c>
+      <c r="D6">
+        <v>1175</v>
+      </c>
+      <c r="E6">
+        <v>224</v>
+      </c>
+      <c r="F6">
+        <v>4.95</v>
+      </c>
+      <c r="G6">
+        <v>1211</v>
+      </c>
+      <c r="H6">
+        <v>224</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1632</v>
+      </c>
+      <c r="K6">
+        <v>224</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1376</v>
+      </c>
+      <c r="N6">
+        <v>224</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>4671</v>
+      </c>
+      <c r="S6">
+        <v>452</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>4887</v>
+      </c>
+      <c r="V6">
+        <v>452</v>
+      </c>
+      <c r="W6">
+        <v>14.43</v>
+      </c>
+      <c r="X6">
+        <v>7389</v>
+      </c>
+      <c r="Y6">
+        <v>452</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>5839</v>
+      </c>
+      <c r="AB6">
+        <v>452</v>
+      </c>
+      <c r="AE6">
+        <v>15.62</v>
+      </c>
+      <c r="AF6">
+        <v>18721</v>
+      </c>
+      <c r="AG6">
+        <v>901</v>
+      </c>
+      <c r="AH6">
+        <v>15.61</v>
+      </c>
+      <c r="AI6">
+        <v>20013</v>
+      </c>
+      <c r="AJ6">
+        <v>901</v>
+      </c>
+      <c r="AK6">
+        <v>31.25</v>
+      </c>
+      <c r="AL6">
+        <v>31313</v>
+      </c>
+      <c r="AM6">
+        <v>901</v>
+      </c>
+      <c r="AN6">
+        <v>48.22</v>
+      </c>
+      <c r="AO6">
+        <v>24318</v>
+      </c>
+      <c r="AP6">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="Z7">
+        <v>5.85</v>
+      </c>
+      <c r="AE7">
+        <v>15.62</v>
+      </c>
+      <c r="AH7">
+        <v>15.61</v>
+      </c>
+      <c r="AK7">
+        <v>46.87</v>
+      </c>
+      <c r="AN7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>4.93</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>11</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>31.23</v>
+      </c>
+      <c r="AH8">
+        <v>31.23</v>
+      </c>
+      <c r="AK8">
+        <v>31.21</v>
+      </c>
+      <c r="AN8">
+        <v>42.06</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>4.99</v>
+      </c>
+      <c r="T9">
+        <v>6.97</v>
+      </c>
+      <c r="W9">
+        <v>8.99</v>
+      </c>
+      <c r="Z9">
+        <v>6.98</v>
+      </c>
+      <c r="AE9">
+        <v>31.25</v>
+      </c>
+      <c r="AH9">
+        <v>15.63</v>
+      </c>
+      <c r="AK9">
+        <v>47.01</v>
+      </c>
+      <c r="AN9">
+        <v>38.01</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5.01</v>
+      </c>
+      <c r="W10">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="Z10">
+        <v>6.99</v>
+      </c>
+      <c r="AE10">
+        <v>15.62</v>
+      </c>
+      <c r="AH10">
+        <v>31.13</v>
+      </c>
+      <c r="AK10">
+        <v>31.25</v>
+      </c>
+      <c r="AN10">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42">
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>9.94</v>
+      </c>
+      <c r="Z11">
+        <v>6.99</v>
+      </c>
+      <c r="AE11">
+        <v>15.62</v>
+      </c>
+      <c r="AH11">
+        <v>15.63</v>
+      </c>
+      <c r="AK11">
+        <v>31.25</v>
+      </c>
+      <c r="AN11">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3.98</v>
+      </c>
+      <c r="T12">
+        <v>5.01</v>
+      </c>
+      <c r="W12">
+        <v>8.94</v>
+      </c>
+      <c r="Z12">
+        <v>6.92</v>
+      </c>
+      <c r="AE12">
+        <v>15.61</v>
+      </c>
+      <c r="AH12">
+        <v>15.61</v>
+      </c>
+      <c r="AK12">
+        <v>46.85</v>
+      </c>
+      <c r="AN12">
+        <v>53.94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
+        <v>15.62</v>
+      </c>
+      <c r="AH13">
+        <v>31.18</v>
+      </c>
+      <c r="AK13">
+        <v>46.85</v>
+      </c>
+      <c r="AN13">
+        <v>65.92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>3.98</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>9.93</v>
+      </c>
+      <c r="Z14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>15.63</v>
+      </c>
+      <c r="AH14">
+        <v>31.21</v>
+      </c>
+      <c r="AK14">
+        <v>46.86</v>
+      </c>
+      <c r="AN14">
+        <v>55.94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>8.98</v>
+      </c>
+      <c r="Z15">
+        <v>8</v>
+      </c>
+      <c r="AE15">
+        <v>31.2</v>
+      </c>
+      <c r="AH15">
+        <v>15.56</v>
+      </c>
+      <c r="AK15">
+        <v>31.23</v>
+      </c>
+      <c r="AN15">
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="15">
+      <c r="C16" s="1">
         <f>AVERAGE(C6:C15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="1" t="e">
+        <v>1.583</v>
+      </c>
+      <c r="F16" s="1">
         <f>AVERAGE(F6:F15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="1" t="e">
+        <v>1.595</v>
+      </c>
+      <c r="I16" s="1">
         <f>AVERAGE(I6:I15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="1" t="e">
+        <v>2.1</v>
+      </c>
+      <c r="L16" s="1">
         <f>AVERAGE(L6:L15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+        <v>1.7</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>4.8879999999999999</v>
+      </c>
+      <c r="T16" s="1">
+        <f>AVERAGE(T6:T15)</f>
+        <v>5.3989999999999991</v>
+      </c>
+      <c r="W16" s="1">
+        <f>AVERAGE(W6:W15)</f>
+        <v>10.010999999999999</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>AVERAGE(Z6:Z15)</f>
+        <v>7.4730000000000008</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>AVERAGE(AE6:AE15)</f>
+        <v>20.302</v>
+      </c>
+      <c r="AH16" s="1">
+        <f>AVERAGE(AH6:AH15)</f>
+        <v>21.84</v>
+      </c>
+      <c r="AK16" s="1">
+        <f>AVERAGE(AK6:AK15)</f>
+        <v>39.063000000000002</v>
+      </c>
+      <c r="AN16" s="1">
+        <f>AVERAGE(AN6:AN15)</f>
+        <v>44.891999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -7690,8 +8361,42 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AD18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+    </row>
+    <row r="19" spans="2:42">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -7709,8 +8414,42 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+    </row>
+    <row r="20" spans="2:42">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -7734,8 +8473,54 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AD20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+    </row>
+    <row r="21" spans="2:42">
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -7772,59 +8557,1327 @@
       <c r="N21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="15">
-      <c r="C32" s="1" t="e">
-        <f t="shared" ref="C32:N32" si="0">AVERAGE(C22:C31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="1" t="e">
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42">
+      <c r="C22">
+        <v>12.01</v>
+      </c>
+      <c r="D22">
+        <v>1175</v>
+      </c>
+      <c r="E22">
+        <v>224</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1211</v>
+      </c>
+      <c r="H22">
+        <v>224</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1632</v>
+      </c>
+      <c r="K22">
+        <v>224</v>
+      </c>
+      <c r="L22">
+        <v>6.01</v>
+      </c>
+      <c r="M22">
+        <v>1376</v>
+      </c>
+      <c r="N22">
+        <v>224</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>4671</v>
+      </c>
+      <c r="S22">
+        <v>452</v>
+      </c>
+      <c r="T22">
+        <v>8.99</v>
+      </c>
+      <c r="U22">
+        <v>4887</v>
+      </c>
+      <c r="V22">
+        <v>452</v>
+      </c>
+      <c r="W22">
+        <v>10.96</v>
+      </c>
+      <c r="X22">
+        <v>7389</v>
+      </c>
+      <c r="Y22">
+        <v>452</v>
+      </c>
+      <c r="Z22">
+        <v>12</v>
+      </c>
+      <c r="AA22">
+        <v>5839</v>
+      </c>
+      <c r="AB22">
+        <v>452</v>
+      </c>
+      <c r="AE22">
+        <v>31</v>
+      </c>
+      <c r="AF22">
+        <v>18721</v>
+      </c>
+      <c r="AG22">
+        <v>901</v>
+      </c>
+      <c r="AH22">
+        <v>32.96</v>
+      </c>
+      <c r="AI22">
+        <v>20013</v>
+      </c>
+      <c r="AJ22">
+        <v>901</v>
+      </c>
+      <c r="AK22">
+        <v>34.96</v>
+      </c>
+      <c r="AL22">
+        <v>31313</v>
+      </c>
+      <c r="AM22">
+        <v>901</v>
+      </c>
+      <c r="AN22">
+        <v>57.96</v>
+      </c>
+      <c r="AO22">
+        <v>24318</v>
+      </c>
+      <c r="AP22">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1251</v>
+      </c>
+      <c r="E23">
+        <v>225</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1301</v>
+      </c>
+      <c r="H23">
+        <v>225</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1763</v>
+      </c>
+      <c r="K23">
+        <v>225</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1419</v>
+      </c>
+      <c r="N23">
+        <v>225</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>4775</v>
+      </c>
+      <c r="S23">
+        <v>453</v>
+      </c>
+      <c r="T23">
+        <v>3.99</v>
+      </c>
+      <c r="U23">
+        <v>5097</v>
+      </c>
+      <c r="V23">
+        <v>453</v>
+      </c>
+      <c r="W23">
+        <v>7.98</v>
+      </c>
+      <c r="X23">
+        <v>7578</v>
+      </c>
+      <c r="Y23">
+        <v>453</v>
+      </c>
+      <c r="Z23">
+        <v>7</v>
+      </c>
+      <c r="AA23">
+        <v>5992</v>
+      </c>
+      <c r="AB23">
+        <v>453</v>
+      </c>
+      <c r="AE23">
+        <v>20.55</v>
+      </c>
+      <c r="AF23">
+        <v>18736</v>
+      </c>
+      <c r="AG23">
+        <v>904</v>
+      </c>
+      <c r="AH23">
+        <v>42.99</v>
+      </c>
+      <c r="AI23">
+        <v>20311</v>
+      </c>
+      <c r="AJ23">
+        <v>904</v>
+      </c>
+      <c r="AK23">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="AL23">
+        <v>32220</v>
+      </c>
+      <c r="AM23">
+        <v>904</v>
+      </c>
+      <c r="AN23">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="AO23">
+        <v>24278</v>
+      </c>
+      <c r="AP23">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1272</v>
+      </c>
+      <c r="E24">
+        <v>225</v>
+      </c>
+      <c r="F24">
+        <v>0.99</v>
+      </c>
+      <c r="G24">
+        <v>1351</v>
+      </c>
+      <c r="H24">
+        <v>225</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>1896</v>
+      </c>
+      <c r="K24">
+        <v>226</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1458</v>
+      </c>
+      <c r="N24">
+        <v>225</v>
+      </c>
+      <c r="Q24">
+        <v>7.01</v>
+      </c>
+      <c r="R24">
+        <v>4725</v>
+      </c>
+      <c r="S24">
+        <v>454</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>5196</v>
+      </c>
+      <c r="V24">
+        <v>456</v>
+      </c>
+      <c r="W24">
+        <v>8.98</v>
+      </c>
+      <c r="X24">
+        <v>7771</v>
+      </c>
+      <c r="Y24">
+        <v>454</v>
+      </c>
+      <c r="Z24">
+        <v>10.01</v>
+      </c>
+      <c r="AA24">
+        <v>6089</v>
+      </c>
+      <c r="AB24">
+        <v>457</v>
+      </c>
+      <c r="AE24">
+        <v>17.97</v>
+      </c>
+      <c r="AF24">
+        <v>18774</v>
+      </c>
+      <c r="AG24">
+        <v>906</v>
+      </c>
+      <c r="AH24">
+        <v>22.01</v>
+      </c>
+      <c r="AI24">
+        <v>20508</v>
+      </c>
+      <c r="AJ24">
+        <v>907</v>
+      </c>
+      <c r="AK24">
+        <v>37.93</v>
+      </c>
+      <c r="AL24">
+        <v>32971</v>
+      </c>
+      <c r="AM24">
+        <v>905</v>
+      </c>
+      <c r="AN24">
+        <v>61.99</v>
+      </c>
+      <c r="AO24">
+        <v>24370</v>
+      </c>
+      <c r="AP24">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42">
+      <c r="C25">
+        <v>0.99</v>
+      </c>
+      <c r="D25">
+        <v>1292</v>
+      </c>
+      <c r="E25">
+        <v>229</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1380</v>
+      </c>
+      <c r="H25">
+        <v>228</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1890</v>
+      </c>
+      <c r="K25">
+        <v>229</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1466</v>
+      </c>
+      <c r="N25">
+        <v>226</v>
+      </c>
+      <c r="Q25">
+        <v>4.99</v>
+      </c>
+      <c r="R25">
+        <v>4806</v>
+      </c>
+      <c r="S25">
+        <v>455</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>5379</v>
+      </c>
+      <c r="V25">
+        <v>457</v>
+      </c>
+      <c r="W25">
+        <v>8.99</v>
+      </c>
+      <c r="X25">
+        <v>7804</v>
+      </c>
+      <c r="Y25">
+        <v>456</v>
+      </c>
+      <c r="Z25">
+        <v>14.01</v>
+      </c>
+      <c r="AA25">
+        <v>6120</v>
+      </c>
+      <c r="AB25">
+        <v>458</v>
+      </c>
+      <c r="AE25">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="AF25">
+        <v>18784</v>
+      </c>
+      <c r="AG25">
+        <v>912</v>
+      </c>
+      <c r="AH25">
+        <v>28.12</v>
+      </c>
+      <c r="AI25">
+        <v>20874</v>
+      </c>
+      <c r="AJ25">
+        <v>912</v>
+      </c>
+      <c r="AK25">
+        <v>47.93</v>
+      </c>
+      <c r="AL25">
+        <v>34122</v>
+      </c>
+      <c r="AM25">
+        <v>912</v>
+      </c>
+      <c r="AN25">
+        <v>32.97</v>
+      </c>
+      <c r="AO25">
+        <v>24673</v>
+      </c>
+      <c r="AP25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1302</v>
+      </c>
+      <c r="E26">
+        <v>226</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1414</v>
+      </c>
+      <c r="H26">
+        <v>228</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1976</v>
+      </c>
+      <c r="K26">
+        <v>230</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1512</v>
+      </c>
+      <c r="N26">
+        <v>228</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>4772</v>
+      </c>
+      <c r="S26">
+        <v>461</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>5534</v>
+      </c>
+      <c r="V26">
+        <v>460</v>
+      </c>
+      <c r="W26">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="X26">
+        <v>8014</v>
+      </c>
+      <c r="Y26">
+        <v>459</v>
+      </c>
+      <c r="Z26">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="AA26">
+        <v>6225</v>
+      </c>
+      <c r="AB26">
+        <v>458</v>
+      </c>
+      <c r="AE26">
+        <v>20.93</v>
+      </c>
+      <c r="AF26">
+        <v>18827</v>
+      </c>
+      <c r="AG26">
+        <v>910</v>
+      </c>
+      <c r="AH26">
+        <v>27.21</v>
+      </c>
+      <c r="AI26">
+        <v>21184</v>
+      </c>
+      <c r="AJ26">
+        <v>911</v>
+      </c>
+      <c r="AK26">
+        <v>54.88</v>
+      </c>
+      <c r="AL26">
+        <v>34914</v>
+      </c>
+      <c r="AM26">
+        <v>915</v>
+      </c>
+      <c r="AN26">
+        <v>48.9</v>
+      </c>
+      <c r="AO26">
+        <v>24795</v>
+      </c>
+      <c r="AP26">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1300</v>
+      </c>
+      <c r="E27">
+        <v>226</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1442</v>
+      </c>
+      <c r="H27">
+        <v>228</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1933</v>
+      </c>
+      <c r="K27">
+        <v>227</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1473</v>
+      </c>
+      <c r="N27">
+        <v>229</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>4832</v>
+      </c>
+      <c r="S27">
+        <v>463</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>5663</v>
+      </c>
+      <c r="V27">
+        <v>465</v>
+      </c>
+      <c r="W27">
+        <v>7.98</v>
+      </c>
+      <c r="X27">
+        <v>7979</v>
+      </c>
+      <c r="Y27">
+        <v>458</v>
+      </c>
+      <c r="Z27">
+        <v>11</v>
+      </c>
+      <c r="AA27">
+        <v>6890</v>
+      </c>
+      <c r="AB27">
+        <v>461</v>
+      </c>
+      <c r="AE27">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AF27">
+        <v>18835</v>
+      </c>
+      <c r="AG27">
+        <v>915</v>
+      </c>
+      <c r="AH27">
+        <v>27.73</v>
+      </c>
+      <c r="AI27">
+        <v>21338</v>
+      </c>
+      <c r="AJ27">
+        <v>915</v>
+      </c>
+      <c r="AK27">
+        <v>41.88</v>
+      </c>
+      <c r="AL27">
+        <v>34538</v>
+      </c>
+      <c r="AM27">
+        <v>916</v>
+      </c>
+      <c r="AN27">
+        <v>55.92</v>
+      </c>
+      <c r="AO27">
+        <v>24741</v>
+      </c>
+      <c r="AP27">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1296</v>
+      </c>
+      <c r="E28">
+        <v>231</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1423</v>
+      </c>
+      <c r="H28">
+        <v>231</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2072</v>
+      </c>
+      <c r="K28">
+        <v>229</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>1482</v>
+      </c>
+      <c r="N28">
+        <v>225</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <v>4839</v>
+      </c>
+      <c r="S28">
+        <v>464</v>
+      </c>
+      <c r="T28">
+        <v>6.99</v>
+      </c>
+      <c r="U28">
+        <v>5739</v>
+      </c>
+      <c r="V28">
+        <v>461</v>
+      </c>
+      <c r="W28">
+        <v>10.97</v>
+      </c>
+      <c r="X28">
+        <v>8542</v>
+      </c>
+      <c r="Y28">
+        <v>466</v>
+      </c>
+      <c r="Z28">
+        <v>9.01</v>
+      </c>
+      <c r="AA28">
+        <v>6425</v>
+      </c>
+      <c r="AB28">
+        <v>462</v>
+      </c>
+      <c r="AE28">
+        <v>23.94</v>
+      </c>
+      <c r="AF28">
+        <v>18866</v>
+      </c>
+      <c r="AG28">
+        <v>915</v>
+      </c>
+      <c r="AH28">
+        <v>37.08</v>
+      </c>
+      <c r="AI28">
+        <v>21628</v>
+      </c>
+      <c r="AJ28">
+        <v>915</v>
+      </c>
+      <c r="AK28">
+        <v>66.8</v>
+      </c>
+      <c r="AL28">
+        <v>35716</v>
+      </c>
+      <c r="AM28">
+        <v>916</v>
+      </c>
+      <c r="AN28">
+        <v>62.05</v>
+      </c>
+      <c r="AO28">
+        <v>24731</v>
+      </c>
+      <c r="AP28">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1293</v>
+      </c>
+      <c r="E29">
+        <v>228</v>
+      </c>
+      <c r="F29">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G29">
+        <v>1441</v>
+      </c>
+      <c r="H29">
+        <v>231</v>
+      </c>
+      <c r="I29">
+        <v>3.01</v>
+      </c>
+      <c r="J29">
+        <v>2069</v>
+      </c>
+      <c r="K29">
+        <v>231</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1496</v>
+      </c>
+      <c r="N29">
+        <v>230</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>4838</v>
+      </c>
+      <c r="S29">
+        <v>463</v>
+      </c>
+      <c r="T29">
+        <v>5.99</v>
+      </c>
+      <c r="U29">
+        <v>5839</v>
+      </c>
+      <c r="V29">
+        <v>470</v>
+      </c>
+      <c r="W29">
+        <v>10.98</v>
+      </c>
+      <c r="X29">
+        <v>8815</v>
+      </c>
+      <c r="Y29">
+        <v>464</v>
+      </c>
+      <c r="Z29">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="AA29">
+        <v>6376</v>
+      </c>
+      <c r="AB29">
+        <v>472</v>
+      </c>
+      <c r="AE29">
+        <v>18.93</v>
+      </c>
+      <c r="AF29">
+        <v>18923</v>
+      </c>
+      <c r="AG29">
+        <v>926</v>
+      </c>
+      <c r="AH29">
+        <v>43.03</v>
+      </c>
+      <c r="AI29">
+        <v>22076</v>
+      </c>
+      <c r="AJ29">
+        <v>919</v>
+      </c>
+      <c r="AK29">
+        <v>49.96</v>
+      </c>
+      <c r="AL29">
+        <v>34737</v>
+      </c>
+      <c r="AM29">
+        <v>924</v>
+      </c>
+      <c r="AN29">
+        <v>40</v>
+      </c>
+      <c r="AO29">
+        <v>25007</v>
+      </c>
+      <c r="AP29">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1294</v>
+      </c>
+      <c r="E30">
+        <v>229</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1461</v>
+      </c>
+      <c r="H30">
+        <v>232</v>
+      </c>
+      <c r="I30">
+        <v>1.98</v>
+      </c>
+      <c r="J30">
+        <v>2021</v>
+      </c>
+      <c r="K30">
+        <v>228</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1499</v>
+      </c>
+      <c r="N30">
+        <v>231</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>4855</v>
+      </c>
+      <c r="S30">
+        <v>470</v>
+      </c>
+      <c r="T30">
+        <v>7</v>
+      </c>
+      <c r="U30">
+        <v>5897</v>
+      </c>
+      <c r="V30">
+        <v>475</v>
+      </c>
+      <c r="W30">
+        <v>12.04</v>
+      </c>
+      <c r="X30">
+        <v>8914</v>
+      </c>
+      <c r="Y30">
+        <v>470</v>
+      </c>
+      <c r="Z30">
+        <v>10</v>
+      </c>
+      <c r="AA30">
+        <v>6426</v>
+      </c>
+      <c r="AB30">
+        <v>482</v>
+      </c>
+      <c r="AE30">
+        <v>20.96</v>
+      </c>
+      <c r="AF30">
+        <v>18995</v>
+      </c>
+      <c r="AG30">
+        <v>926</v>
+      </c>
+      <c r="AH30">
+        <v>40.98</v>
+      </c>
+      <c r="AI30">
+        <v>22506</v>
+      </c>
+      <c r="AJ30">
+        <v>929</v>
+      </c>
+      <c r="AK30">
+        <v>97.97</v>
+      </c>
+      <c r="AL30">
+        <v>36200</v>
+      </c>
+      <c r="AM30">
+        <v>928</v>
+      </c>
+      <c r="AN30">
+        <v>60.03</v>
+      </c>
+      <c r="AO30">
+        <v>25008</v>
+      </c>
+      <c r="AP30">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1315</v>
+      </c>
+      <c r="E31">
+        <v>232</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1479</v>
+      </c>
+      <c r="H31">
+        <v>233</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2077</v>
+      </c>
+      <c r="K31">
+        <v>232</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1550</v>
+      </c>
+      <c r="N31">
+        <v>233</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>4877</v>
+      </c>
+      <c r="S31">
+        <v>464</v>
+      </c>
+      <c r="T31">
+        <v>7.01</v>
+      </c>
+      <c r="U31">
+        <v>5989</v>
+      </c>
+      <c r="V31">
+        <v>464</v>
+      </c>
+      <c r="W31">
+        <v>10.98</v>
+      </c>
+      <c r="X31">
+        <v>8832</v>
+      </c>
+      <c r="Y31">
+        <v>473</v>
+      </c>
+      <c r="Z31">
+        <v>8.98</v>
+      </c>
+      <c r="AA31">
+        <v>6457</v>
+      </c>
+      <c r="AB31">
+        <v>471</v>
+      </c>
+      <c r="AE31">
+        <v>19.98</v>
+      </c>
+      <c r="AF31">
+        <v>18987</v>
+      </c>
+      <c r="AG31">
+        <v>933</v>
+      </c>
+      <c r="AH31">
+        <v>52.08</v>
+      </c>
+      <c r="AI31">
+        <v>22758</v>
+      </c>
+      <c r="AJ31">
+        <v>933</v>
+      </c>
+      <c r="AK31">
+        <v>81.05</v>
+      </c>
+      <c r="AL31">
+        <v>35270</v>
+      </c>
+      <c r="AM31">
+        <v>935</v>
+      </c>
+      <c r="AN31">
+        <v>41.99</v>
+      </c>
+      <c r="AO31">
+        <v>25159</v>
+      </c>
+      <c r="AP31">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" ht="15">
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:M32" si="0">AVERAGE(C22:C31)</f>
+        <v>2.1</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="1" t="e">
+        <v>1279</v>
+      </c>
+      <c r="E32" s="1">
         <f>AVERAGE(E22:E31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="1" t="e">
+        <v>227.5</v>
+      </c>
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="1" t="e">
+        <v>1.7</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="1" t="e">
+        <v>1390.3</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="1" t="e">
+        <v>228.5</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="1" t="e">
+        <v>2.4989999999999997</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="1" t="e">
+        <v>1932.9</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="1" t="e">
+        <v>228.1</v>
+      </c>
+      <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="1" t="e">
+        <v>1.9009999999999998</v>
+      </c>
+      <c r="M32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="1" t="e">
+        <v>1473.1</v>
+      </c>
+      <c r="N32" s="1">
         <f>AVERAGE(N22:N31)</f>
-        <v>#DIV/0!</v>
+        <v>227.6</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ref="Q32:R32" si="1">AVERAGE(Q22:Q31)</f>
+        <v>5.6</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="1"/>
+        <v>4799</v>
+      </c>
+      <c r="S32" s="1">
+        <f>AVERAGE(S22:S31)</f>
+        <v>459.9</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" ref="T32:AA32" si="2">AVERAGE(T22:T31)</f>
+        <v>6.5970000000000013</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="2"/>
+        <v>5522</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="2"/>
+        <v>461.3</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9830000000000005</v>
+      </c>
+      <c r="X32" s="1">
+        <f t="shared" si="2"/>
+        <v>8163.8</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="2"/>
+        <v>460.5</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="2"/>
+        <v>11.403000000000002</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" si="2"/>
+        <v>6283.9</v>
+      </c>
+      <c r="AB32" s="1">
+        <f>AVERAGE(AB22:AB31)</f>
+        <v>462.6</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" ref="AE32:AF32" si="3">AVERAGE(AE22:AE31)</f>
+        <v>21.318999999999999</v>
+      </c>
+      <c r="AF32" s="1">
+        <f t="shared" si="3"/>
+        <v>18844.8</v>
+      </c>
+      <c r="AG32" s="1">
+        <f>AVERAGE(AG22:AG31)</f>
+        <v>914.8</v>
+      </c>
+      <c r="AH32" s="1">
+        <f t="shared" ref="AH32:AO32" si="4">AVERAGE(AH22:AH31)</f>
+        <v>35.418999999999997</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="4"/>
+        <v>21319.599999999999</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="4"/>
+        <v>914.6</v>
+      </c>
+      <c r="AK32" s="1">
+        <f t="shared" si="4"/>
+        <v>54.819999999999993</v>
+      </c>
+      <c r="AL32" s="1">
+        <f t="shared" si="4"/>
+        <v>34200.1</v>
+      </c>
+      <c r="AM32" s="1">
+        <f t="shared" si="4"/>
+        <v>915.6</v>
+      </c>
+      <c r="AN32" s="1">
+        <f t="shared" si="4"/>
+        <v>49.433000000000007</v>
+      </c>
+      <c r="AO32" s="1">
+        <f t="shared" si="4"/>
+        <v>24708</v>
+      </c>
+      <c r="AP32" s="1">
+        <f>AVERAGE(AP22:AP31)</f>
+        <v>916.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="36">
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C19:N19"/>
     <mergeCell ref="C20:E20"/>
@@ -7837,6 +9890,2297 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
+    <mergeCell ref="Q18:AB18"/>
+    <mergeCell ref="Q19:AB19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AE18:AP18"/>
+    <mergeCell ref="AE19:AP19"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="R2:AB2"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AQ32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:42">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+    </row>
+    <row r="3" spans="2:42">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="2:42">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+    </row>
+    <row r="5" spans="2:42">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1348</v>
+      </c>
+      <c r="H6">
+        <v>181</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1537</v>
+      </c>
+      <c r="K6">
+        <v>181</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1284</v>
+      </c>
+      <c r="N6">
+        <v>181</v>
+      </c>
+      <c r="T6">
+        <v>8.99</v>
+      </c>
+      <c r="U6">
+        <v>5943</v>
+      </c>
+      <c r="V6">
+        <v>363</v>
+      </c>
+      <c r="W6">
+        <v>11</v>
+      </c>
+      <c r="X6">
+        <v>6917</v>
+      </c>
+      <c r="Y6">
+        <v>363</v>
+      </c>
+      <c r="Z6">
+        <v>9.98</v>
+      </c>
+      <c r="AA6">
+        <v>5817</v>
+      </c>
+      <c r="AB6">
+        <v>363</v>
+      </c>
+      <c r="AH6">
+        <v>15.62</v>
+      </c>
+      <c r="AI6">
+        <v>24109</v>
+      </c>
+      <c r="AJ6">
+        <v>716</v>
+      </c>
+      <c r="AK6">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="AL6">
+        <v>29903</v>
+      </c>
+      <c r="AM6">
+        <v>717</v>
+      </c>
+      <c r="AN6">
+        <v>33.42</v>
+      </c>
+      <c r="AO6">
+        <v>23906</v>
+      </c>
+      <c r="AP6">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2.29</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>6.98</v>
+      </c>
+      <c r="AH7">
+        <v>30.98</v>
+      </c>
+      <c r="AK7">
+        <v>32.01</v>
+      </c>
+      <c r="AN7">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.97</v>
+      </c>
+      <c r="T8">
+        <v>4.96</v>
+      </c>
+      <c r="W8">
+        <v>6.99</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AH8">
+        <v>31.24</v>
+      </c>
+      <c r="AK8">
+        <v>38.97</v>
+      </c>
+      <c r="AN8">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>6.96</v>
+      </c>
+      <c r="W9">
+        <v>6.99</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AH9">
+        <v>31.22</v>
+      </c>
+      <c r="AK9">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="AN9">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.99</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="W10">
+        <v>6.98</v>
+      </c>
+      <c r="Z10">
+        <v>5.99</v>
+      </c>
+      <c r="AH10">
+        <v>31.22</v>
+      </c>
+      <c r="AK10">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="AN10">
+        <v>32.020000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.98</v>
+      </c>
+      <c r="T11">
+        <v>5.95</v>
+      </c>
+      <c r="W11">
+        <v>6.99</v>
+      </c>
+      <c r="Z11">
+        <v>5.99</v>
+      </c>
+      <c r="AH11">
+        <v>31.22</v>
+      </c>
+      <c r="AK11">
+        <v>40.92</v>
+      </c>
+      <c r="AN11">
+        <v>32.93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>9.01</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>62.42</v>
+      </c>
+      <c r="AK12">
+        <v>51.98</v>
+      </c>
+      <c r="AN12">
+        <v>28.93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>6.01</v>
+      </c>
+      <c r="W13">
+        <v>8.99</v>
+      </c>
+      <c r="Z13">
+        <v>6.99</v>
+      </c>
+      <c r="AH13">
+        <v>62.45</v>
+      </c>
+      <c r="AK13">
+        <v>35.9</v>
+      </c>
+      <c r="AN13">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0.99</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>7.01</v>
+      </c>
+      <c r="Z14">
+        <v>8.01</v>
+      </c>
+      <c r="AH14">
+        <v>46.81</v>
+      </c>
+      <c r="AK14">
+        <v>37.93</v>
+      </c>
+      <c r="AN14">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>10.01</v>
+      </c>
+      <c r="Z15">
+        <v>11.02</v>
+      </c>
+      <c r="AH15">
+        <v>31.23</v>
+      </c>
+      <c r="AK15">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="AN15">
+        <v>36.01</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="15">
+      <c r="C16" s="1" t="e">
+        <f>AVERAGE(C6:C15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="1">
+        <f>AVERAGE(F6:F15)</f>
+        <v>1.7</v>
+      </c>
+      <c r="I16" s="1">
+        <f>AVERAGE(I6:I15)</f>
+        <v>1.827</v>
+      </c>
+      <c r="L16" s="1">
+        <f>AVERAGE(L6:L15)</f>
+        <v>1.4949999999999999</v>
+      </c>
+      <c r="Q16" s="1" t="e">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="1">
+        <f>AVERAGE(T6:T15)</f>
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="W16" s="1">
+        <f>AVERAGE(W6:W15)</f>
+        <v>8.0970000000000013</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>AVERAGE(Z6:Z15)</f>
+        <v>7.2960000000000012</v>
+      </c>
+      <c r="AE16" s="1" t="e">
+        <f>AVERAGE(AE6:AE15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="1">
+        <f>AVERAGE(AH6:AH15)</f>
+        <v>37.441000000000003</v>
+      </c>
+      <c r="AK16" s="1">
+        <f>AVERAGE(AK6:AK15)</f>
+        <v>39.120999999999995</v>
+      </c>
+      <c r="AN16" s="1">
+        <f>AVERAGE(AN6:AN15)</f>
+        <v>30.881</v>
+      </c>
+    </row>
+    <row r="18" spans="2:43">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AE18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+    </row>
+    <row r="19" spans="2:43">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+    </row>
+    <row r="20" spans="2:43">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AE20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+    </row>
+    <row r="21" spans="2:43">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1210</v>
+      </c>
+      <c r="E22">
+        <v>181</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1348</v>
+      </c>
+      <c r="H22">
+        <v>181</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>1537</v>
+      </c>
+      <c r="K22">
+        <v>181</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>1284</v>
+      </c>
+      <c r="N22">
+        <v>181</v>
+      </c>
+      <c r="Q22">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="R22">
+        <v>4778</v>
+      </c>
+      <c r="S22">
+        <v>363</v>
+      </c>
+      <c r="T22">
+        <v>12</v>
+      </c>
+      <c r="U22">
+        <v>5943</v>
+      </c>
+      <c r="V22">
+        <v>363</v>
+      </c>
+      <c r="W22">
+        <v>10.99</v>
+      </c>
+      <c r="X22">
+        <v>6917</v>
+      </c>
+      <c r="Y22">
+        <v>363</v>
+      </c>
+      <c r="Z22">
+        <v>15</v>
+      </c>
+      <c r="AA22">
+        <v>5817</v>
+      </c>
+      <c r="AB22">
+        <v>363</v>
+      </c>
+      <c r="AF22">
+        <v>28.84</v>
+      </c>
+      <c r="AG22">
+        <v>18851</v>
+      </c>
+      <c r="AH22">
+        <v>716</v>
+      </c>
+      <c r="AI22">
+        <v>29.75</v>
+      </c>
+      <c r="AJ22">
+        <v>24109</v>
+      </c>
+      <c r="AK22">
+        <v>716</v>
+      </c>
+      <c r="AL22">
+        <v>33.94</v>
+      </c>
+      <c r="AM22">
+        <v>29903</v>
+      </c>
+      <c r="AN22">
+        <v>717</v>
+      </c>
+      <c r="AO22">
+        <v>30.67</v>
+      </c>
+      <c r="AP22">
+        <v>23906</v>
+      </c>
+      <c r="AQ22">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1325</v>
+      </c>
+      <c r="E23">
+        <v>181</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1418</v>
+      </c>
+      <c r="H23">
+        <v>181</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1594</v>
+      </c>
+      <c r="K23">
+        <v>181</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1392</v>
+      </c>
+      <c r="N23">
+        <v>181</v>
+      </c>
+      <c r="Q23">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>4889</v>
+      </c>
+      <c r="S23">
+        <v>363</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>6057</v>
+      </c>
+      <c r="V23">
+        <v>364</v>
+      </c>
+      <c r="W23">
+        <v>8</v>
+      </c>
+      <c r="X23">
+        <v>7365</v>
+      </c>
+      <c r="Y23">
+        <v>363</v>
+      </c>
+      <c r="Z23">
+        <v>9.01</v>
+      </c>
+      <c r="AA23">
+        <v>5910</v>
+      </c>
+      <c r="AB23">
+        <v>363</v>
+      </c>
+      <c r="AF23">
+        <v>20.02</v>
+      </c>
+      <c r="AG23">
+        <v>18882</v>
+      </c>
+      <c r="AH23">
+        <v>725</v>
+      </c>
+      <c r="AI23">
+        <v>24.93</v>
+      </c>
+      <c r="AJ23">
+        <v>24289</v>
+      </c>
+      <c r="AK23">
+        <v>727</v>
+      </c>
+      <c r="AL23">
+        <v>39.14</v>
+      </c>
+      <c r="AM23">
+        <v>30188</v>
+      </c>
+      <c r="AN23">
+        <v>751</v>
+      </c>
+      <c r="AO23">
+        <v>24.98</v>
+      </c>
+      <c r="AP23">
+        <v>24078</v>
+      </c>
+      <c r="AQ23">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1277</v>
+      </c>
+      <c r="E24">
+        <v>181</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1426</v>
+      </c>
+      <c r="H24">
+        <v>181</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1582</v>
+      </c>
+      <c r="K24">
+        <v>181</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1337</v>
+      </c>
+      <c r="N24">
+        <v>181</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>4948</v>
+      </c>
+      <c r="S24">
+        <v>370</v>
+      </c>
+      <c r="T24">
+        <v>6.97</v>
+      </c>
+      <c r="U24">
+        <v>6138</v>
+      </c>
+      <c r="V24">
+        <v>367</v>
+      </c>
+      <c r="W24">
+        <v>7.98</v>
+      </c>
+      <c r="X24">
+        <v>7732</v>
+      </c>
+      <c r="Y24">
+        <v>368</v>
+      </c>
+      <c r="Z24">
+        <v>8</v>
+      </c>
+      <c r="AA24">
+        <v>6021</v>
+      </c>
+      <c r="AB24">
+        <v>370</v>
+      </c>
+      <c r="AF24">
+        <v>18.95</v>
+      </c>
+      <c r="AG24">
+        <v>18889</v>
+      </c>
+      <c r="AH24">
+        <v>728</v>
+      </c>
+      <c r="AI24">
+        <v>24.94</v>
+      </c>
+      <c r="AJ24">
+        <v>24723</v>
+      </c>
+      <c r="AK24">
+        <v>726</v>
+      </c>
+      <c r="AL24">
+        <v>42.91</v>
+      </c>
+      <c r="AM24">
+        <v>32157</v>
+      </c>
+      <c r="AN24">
+        <v>732</v>
+      </c>
+      <c r="AO24">
+        <v>24.99</v>
+      </c>
+      <c r="AP24">
+        <v>24122</v>
+      </c>
+      <c r="AQ24">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1376</v>
+      </c>
+      <c r="E25">
+        <v>185</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1491</v>
+      </c>
+      <c r="H25">
+        <v>184</v>
+      </c>
+      <c r="I25">
+        <v>1.96</v>
+      </c>
+      <c r="J25">
+        <v>1696</v>
+      </c>
+      <c r="K25">
+        <v>181</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1488</v>
+      </c>
+      <c r="N25">
+        <v>183</v>
+      </c>
+      <c r="Q25">
+        <v>6.01</v>
+      </c>
+      <c r="R25">
+        <v>5027</v>
+      </c>
+      <c r="S25">
+        <v>372</v>
+      </c>
+      <c r="T25">
+        <v>7.01</v>
+      </c>
+      <c r="U25">
+        <v>6207</v>
+      </c>
+      <c r="V25">
+        <v>372</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <v>8802</v>
+      </c>
+      <c r="Y25">
+        <v>366</v>
+      </c>
+      <c r="Z25">
+        <v>7.99</v>
+      </c>
+      <c r="AA25">
+        <v>6245</v>
+      </c>
+      <c r="AB25">
+        <v>367</v>
+      </c>
+      <c r="AF25">
+        <v>20.98</v>
+      </c>
+      <c r="AG25">
+        <v>18958</v>
+      </c>
+      <c r="AH25">
+        <v>731</v>
+      </c>
+      <c r="AI25">
+        <v>31.05</v>
+      </c>
+      <c r="AJ25">
+        <v>24695</v>
+      </c>
+      <c r="AK25">
+        <v>736</v>
+      </c>
+      <c r="AL25">
+        <v>43.91</v>
+      </c>
+      <c r="AM25">
+        <v>33426</v>
+      </c>
+      <c r="AN25">
+        <v>731</v>
+      </c>
+      <c r="AO25">
+        <v>30.99</v>
+      </c>
+      <c r="AP25">
+        <v>24477</v>
+      </c>
+      <c r="AQ25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1346</v>
+      </c>
+      <c r="E26">
+        <v>184</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1484</v>
+      </c>
+      <c r="H26">
+        <v>183</v>
+      </c>
+      <c r="I26">
+        <v>1.99</v>
+      </c>
+      <c r="J26">
+        <v>1698</v>
+      </c>
+      <c r="K26">
+        <v>184</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1492</v>
+      </c>
+      <c r="N26">
+        <v>183</v>
+      </c>
+      <c r="Q26">
+        <v>7.01</v>
+      </c>
+      <c r="R26">
+        <v>5096</v>
+      </c>
+      <c r="S26">
+        <v>367</v>
+      </c>
+      <c r="T26">
+        <v>6.97</v>
+      </c>
+      <c r="U26">
+        <v>6451</v>
+      </c>
+      <c r="V26">
+        <v>374</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>8400</v>
+      </c>
+      <c r="Y26">
+        <v>370</v>
+      </c>
+      <c r="Z26">
+        <v>8.81</v>
+      </c>
+      <c r="AA26">
+        <v>6348</v>
+      </c>
+      <c r="AB26">
+        <v>369</v>
+      </c>
+      <c r="AF26">
+        <v>20.99</v>
+      </c>
+      <c r="AG26">
+        <v>19009</v>
+      </c>
+      <c r="AH26">
+        <v>738</v>
+      </c>
+      <c r="AI26">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="AJ26">
+        <v>24754</v>
+      </c>
+      <c r="AK26">
+        <v>744</v>
+      </c>
+      <c r="AL26">
+        <v>47.87</v>
+      </c>
+      <c r="AM26">
+        <v>35708</v>
+      </c>
+      <c r="AN26">
+        <v>741</v>
+      </c>
+      <c r="AO26">
+        <v>28.99</v>
+      </c>
+      <c r="AP26">
+        <v>24491</v>
+      </c>
+      <c r="AQ26">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1340</v>
+      </c>
+      <c r="E27">
+        <v>184</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1485</v>
+      </c>
+      <c r="H27">
+        <v>186</v>
+      </c>
+      <c r="I27">
+        <v>3.03</v>
+      </c>
+      <c r="J27">
+        <v>1684</v>
+      </c>
+      <c r="K27">
+        <v>184</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1486</v>
+      </c>
+      <c r="N27">
+        <v>184</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>5066</v>
+      </c>
+      <c r="S27">
+        <v>375</v>
+      </c>
+      <c r="T27">
+        <v>9</v>
+      </c>
+      <c r="U27">
+        <v>6496</v>
+      </c>
+      <c r="V27">
+        <v>375</v>
+      </c>
+      <c r="W27">
+        <v>9.93</v>
+      </c>
+      <c r="X27">
+        <v>8269</v>
+      </c>
+      <c r="Y27">
+        <v>374</v>
+      </c>
+      <c r="Z27">
+        <v>7.93</v>
+      </c>
+      <c r="AA27">
+        <v>6469</v>
+      </c>
+      <c r="AB27">
+        <v>370</v>
+      </c>
+      <c r="AF27">
+        <v>18.95</v>
+      </c>
+      <c r="AG27">
+        <v>18985</v>
+      </c>
+      <c r="AH27">
+        <v>742</v>
+      </c>
+      <c r="AI27">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="AJ27">
+        <v>25012</v>
+      </c>
+      <c r="AK27">
+        <v>737</v>
+      </c>
+      <c r="AL27">
+        <v>44.81</v>
+      </c>
+      <c r="AM27">
+        <v>35113</v>
+      </c>
+      <c r="AN27">
+        <v>751</v>
+      </c>
+      <c r="AO27">
+        <v>46.99</v>
+      </c>
+      <c r="AP27">
+        <v>24752</v>
+      </c>
+      <c r="AQ27">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1358</v>
+      </c>
+      <c r="E28">
+        <v>183</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1526</v>
+      </c>
+      <c r="H28">
+        <v>184</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1774</v>
+      </c>
+      <c r="K28">
+        <v>183</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1507</v>
+      </c>
+      <c r="N28">
+        <v>185</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>5234</v>
+      </c>
+      <c r="S28">
+        <v>372</v>
+      </c>
+      <c r="T28">
+        <v>8.01</v>
+      </c>
+      <c r="U28">
+        <v>6581</v>
+      </c>
+      <c r="V28">
+        <v>380</v>
+      </c>
+      <c r="W28">
+        <v>11</v>
+      </c>
+      <c r="X28">
+        <v>8716</v>
+      </c>
+      <c r="Y28">
+        <v>370</v>
+      </c>
+      <c r="Z28">
+        <v>10</v>
+      </c>
+      <c r="AA28">
+        <v>6545</v>
+      </c>
+      <c r="AB28">
+        <v>375</v>
+      </c>
+      <c r="AF28">
+        <v>19.97</v>
+      </c>
+      <c r="AG28">
+        <v>19066</v>
+      </c>
+      <c r="AH28">
+        <v>752</v>
+      </c>
+      <c r="AI28">
+        <v>30.96</v>
+      </c>
+      <c r="AJ28">
+        <v>25111</v>
+      </c>
+      <c r="AK28">
+        <v>747</v>
+      </c>
+      <c r="AL28">
+        <v>45.91</v>
+      </c>
+      <c r="AM28">
+        <v>35889</v>
+      </c>
+      <c r="AN28">
+        <v>752</v>
+      </c>
+      <c r="AO28">
+        <v>48.98</v>
+      </c>
+      <c r="AP28">
+        <v>24910</v>
+      </c>
+      <c r="AQ28">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1339</v>
+      </c>
+      <c r="E29">
+        <v>187</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1525</v>
+      </c>
+      <c r="H29">
+        <v>184</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>1751</v>
+      </c>
+      <c r="K29">
+        <v>186</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1538</v>
+      </c>
+      <c r="N29">
+        <v>186</v>
+      </c>
+      <c r="Q29">
+        <v>5.01</v>
+      </c>
+      <c r="R29">
+        <v>5194</v>
+      </c>
+      <c r="S29">
+        <v>382</v>
+      </c>
+      <c r="T29">
+        <v>9</v>
+      </c>
+      <c r="U29">
+        <v>6532</v>
+      </c>
+      <c r="V29">
+        <v>376</v>
+      </c>
+      <c r="W29">
+        <v>11</v>
+      </c>
+      <c r="X29">
+        <v>8449</v>
+      </c>
+      <c r="Y29">
+        <v>371</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>6553</v>
+      </c>
+      <c r="AB29">
+        <v>370</v>
+      </c>
+      <c r="AF29">
+        <v>23.01</v>
+      </c>
+      <c r="AG29">
+        <v>19081</v>
+      </c>
+      <c r="AH29">
+        <v>748</v>
+      </c>
+      <c r="AI29">
+        <v>32.99</v>
+      </c>
+      <c r="AJ29">
+        <v>25243</v>
+      </c>
+      <c r="AK29">
+        <v>748</v>
+      </c>
+      <c r="AL29">
+        <v>52.93</v>
+      </c>
+      <c r="AM29">
+        <v>38486</v>
+      </c>
+      <c r="AN29">
+        <v>749</v>
+      </c>
+      <c r="AO29">
+        <v>30.96</v>
+      </c>
+      <c r="AP29">
+        <v>25070</v>
+      </c>
+      <c r="AQ29">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1342</v>
+      </c>
+      <c r="E30">
+        <v>184</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1528</v>
+      </c>
+      <c r="H30">
+        <v>188</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>1751</v>
+      </c>
+      <c r="K30">
+        <v>185</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1541</v>
+      </c>
+      <c r="N30">
+        <v>183</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>5240</v>
+      </c>
+      <c r="S30">
+        <v>375</v>
+      </c>
+      <c r="T30">
+        <v>8</v>
+      </c>
+      <c r="U30">
+        <v>6625</v>
+      </c>
+      <c r="V30">
+        <v>377</v>
+      </c>
+      <c r="W30">
+        <v>11.04</v>
+      </c>
+      <c r="X30">
+        <v>8081</v>
+      </c>
+      <c r="Y30">
+        <v>373</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>6739</v>
+      </c>
+      <c r="AB30">
+        <v>374</v>
+      </c>
+      <c r="AF30">
+        <v>20.96</v>
+      </c>
+      <c r="AG30">
+        <v>19123</v>
+      </c>
+      <c r="AH30">
+        <v>757</v>
+      </c>
+      <c r="AI30">
+        <v>34</v>
+      </c>
+      <c r="AJ30">
+        <v>25078</v>
+      </c>
+      <c r="AK30">
+        <v>757</v>
+      </c>
+      <c r="AL30">
+        <v>66.94</v>
+      </c>
+      <c r="AM30">
+        <v>40690</v>
+      </c>
+      <c r="AN30">
+        <v>752</v>
+      </c>
+      <c r="AO30">
+        <v>32</v>
+      </c>
+      <c r="AP30">
+        <v>25656</v>
+      </c>
+      <c r="AQ30">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1365</v>
+      </c>
+      <c r="E31">
+        <v>189</v>
+      </c>
+      <c r="F31">
+        <v>1.99</v>
+      </c>
+      <c r="G31">
+        <v>1575</v>
+      </c>
+      <c r="H31">
+        <v>188</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1801</v>
+      </c>
+      <c r="K31">
+        <v>185</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1577</v>
+      </c>
+      <c r="N31">
+        <v>187</v>
+      </c>
+      <c r="Q31">
+        <v>6.01</v>
+      </c>
+      <c r="R31">
+        <v>5231</v>
+      </c>
+      <c r="S31">
+        <v>378</v>
+      </c>
+      <c r="T31">
+        <v>8.01</v>
+      </c>
+      <c r="U31">
+        <v>6731</v>
+      </c>
+      <c r="V31">
+        <v>379</v>
+      </c>
+      <c r="W31">
+        <v>10.97</v>
+      </c>
+      <c r="X31">
+        <v>8386</v>
+      </c>
+      <c r="Y31">
+        <v>372</v>
+      </c>
+      <c r="Z31">
+        <v>7</v>
+      </c>
+      <c r="AA31">
+        <v>6724</v>
+      </c>
+      <c r="AB31">
+        <v>378</v>
+      </c>
+      <c r="AF31">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>19088</v>
+      </c>
+      <c r="AH31">
+        <v>759</v>
+      </c>
+      <c r="AI31">
+        <v>28.94</v>
+      </c>
+      <c r="AJ31">
+        <v>25292</v>
+      </c>
+      <c r="AK31">
+        <v>756</v>
+      </c>
+      <c r="AL31">
+        <v>54.8</v>
+      </c>
+      <c r="AM31">
+        <v>41450</v>
+      </c>
+      <c r="AN31">
+        <v>769</v>
+      </c>
+      <c r="AO31">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="AP31">
+        <v>25563</v>
+      </c>
+      <c r="AQ31">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="2:43" ht="15">
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:M32" si="0">AVERAGE(C22:C31)</f>
+        <v>1.4</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>1327.8</v>
+      </c>
+      <c r="E32" s="1">
+        <f>AVERAGE(E22:E31)</f>
+        <v>183.9</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8989999999999998</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>1480.6</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>1686.8</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>183.1</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="0"/>
+        <v>1464.2</v>
+      </c>
+      <c r="N32" s="1">
+        <f>AVERAGE(N22:N31)</f>
+        <v>183.4</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ref="Q32:R32" si="1">AVERAGE(Q22:Q31)</f>
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="1"/>
+        <v>5070.3</v>
+      </c>
+      <c r="S32" s="1">
+        <f>AVERAGE(S22:S31)</f>
+        <v>371.7</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" ref="T32:AA32" si="2">AVERAGE(T22:T31)</f>
+        <v>8.1969999999999992</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="2"/>
+        <v>6376.1</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="2"/>
+        <v>372.7</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="2"/>
+        <v>10.190999999999999</v>
+      </c>
+      <c r="X32" s="1">
+        <f t="shared" si="2"/>
+        <v>8111.7</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6740000000000013</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" si="2"/>
+        <v>6337.1</v>
+      </c>
+      <c r="AB32" s="1">
+        <f>AVERAGE(AB22:AB31)</f>
+        <v>369.9</v>
+      </c>
+      <c r="AF32" s="1">
+        <f>AVERAGE(AF22:AF31)</f>
+        <v>21.260999999999999</v>
+      </c>
+      <c r="AG32" s="1">
+        <f>AVERAGE(AG22:AG31)</f>
+        <v>18993.2</v>
+      </c>
+      <c r="AH32" s="1">
+        <f>AVERAGE(AH22:AH31)</f>
+        <v>739.6</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" ref="AI32:AP32" si="3">AVERAGE(AI22:AI31)</f>
+        <v>30.349</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="3"/>
+        <v>24830.6</v>
+      </c>
+      <c r="AK32" s="1">
+        <f t="shared" si="3"/>
+        <v>739.4</v>
+      </c>
+      <c r="AL32" s="1">
+        <f t="shared" si="3"/>
+        <v>47.316000000000003</v>
+      </c>
+      <c r="AM32" s="1">
+        <f t="shared" si="3"/>
+        <v>35301</v>
+      </c>
+      <c r="AN32" s="1">
+        <f t="shared" si="3"/>
+        <v>744.5</v>
+      </c>
+      <c r="AO32" s="1">
+        <f t="shared" si="3"/>
+        <v>33.353000000000002</v>
+      </c>
+      <c r="AP32" s="1">
+        <f t="shared" si="3"/>
+        <v>24702.5</v>
+      </c>
+      <c r="AQ32" s="1">
+        <f>AVERAGE(AQ22:AQ31)</f>
+        <v>736.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="Q18:AB18"/>
+    <mergeCell ref="Q19:AB19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AF18:AQ18"/>
+    <mergeCell ref="AF19:AQ19"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="AL20:AN20"/>
+    <mergeCell ref="AO20:AQ20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Wyniki2.xlsx
+++ b/doc/Wyniki2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="1"/>
@@ -13,7 +13,7 @@
     <sheet name="Mapa3" sheetId="4" r:id="rId4"/>
     <sheet name="Mapa4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -326,7 +326,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -338,12 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -667,178 +667,178 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="P3" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
       <c r="AD3" t="s">
         <v>0</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
       <c r="AD4" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AE4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
     </row>
     <row r="5" spans="2:42">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
       <c r="P5" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23" t="s">
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23" t="s">
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23" t="s">
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
       <c r="AD5" t="s">
         <v>2</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AE5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23" t="s">
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23" t="s">
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23" t="s">
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
     </row>
     <row r="6" spans="2:42">
       <c r="C6" t="s">
@@ -1486,51 +1486,51 @@
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="P20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AD20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AE20" s="19" t="s">
+      <c r="AE20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
@@ -1539,49 +1539,49 @@
       <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
       <c r="O21" s="3"/>
       <c r="P21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AD21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE21" s="19" t="s">
+      <c r="AE21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
@@ -1590,57 +1590,57 @@
       <c r="B22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
       <c r="P22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q22" s="19" t="s">
+      <c r="Q22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19" t="s">
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19" t="s">
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
       <c r="AD22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE22" s="19" t="s">
+      <c r="AE22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19" t="s">
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19" t="s">
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
     </row>
     <row r="23" spans="2:42">
       <c r="C23" s="5" t="s">
@@ -2770,34 +2770,34 @@
       <c r="B38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="P38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="22"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="24"/>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
@@ -2806,51 +2806,51 @@
       <c r="B39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="P39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q39" s="20" t="s">
+      <c r="Q39" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="22"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="24"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AD39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AE39" s="19" t="s">
+      <c r="AE39" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
@@ -2859,53 +2859,53 @@
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="20" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="20" t="s">
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="26"/>
       <c r="P40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="Q40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="20" t="s">
+      <c r="R40" s="23"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U40" s="21"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="19" t="s">
+      <c r="U40" s="23"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
       <c r="AD40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE40" s="19" t="s">
+      <c r="AE40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
@@ -2970,21 +2970,21 @@
       <c r="AD41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE41" s="19" t="s">
+      <c r="AE41" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19" t="s">
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19" t="s">
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
     </row>
     <row r="42" spans="2:42">
       <c r="B42" s="12" t="s">
@@ -3134,33 +3134,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="Q4:AB4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AE3:AP3"/>
-    <mergeCell ref="AE4:AP4"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AE41:AG41"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AK41:AM41"/>
+    <mergeCell ref="AE39:AM39"/>
+    <mergeCell ref="AE40:AM40"/>
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="Q21:Y21"/>
     <mergeCell ref="Q40:S40"/>
@@ -3177,11 +3155,33 @@
     <mergeCell ref="C39:K39"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="T22:V22"/>
-    <mergeCell ref="AE41:AG41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AK41:AM41"/>
-    <mergeCell ref="AE39:AM39"/>
-    <mergeCell ref="AE40:AM40"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="AE4:AP4"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:AB4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3192,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36:Y40"/>
+    <sheetView tabSelected="1" topLeftCell="AA28" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39:AN43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3208,178 +3208,178 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="P2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
       <c r="AE2" t="s">
         <v>0</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
     </row>
     <row r="3" spans="2:43">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="P3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
       <c r="AE3" t="s">
         <v>1</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AF3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
     </row>
     <row r="4" spans="2:43">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23" t="s">
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
       <c r="AE4" t="s">
         <v>2</v>
       </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AF4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23" t="s">
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23" t="s">
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23" t="s">
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" t="s">
@@ -3997,51 +3997,51 @@
       <c r="B19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="P19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AE19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF19" s="19" t="s">
+      <c r="AF19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
@@ -4050,51 +4050,51 @@
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="P20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AE20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF20" s="19" t="s">
+      <c r="AF20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
@@ -4103,57 +4103,57 @@
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
       <c r="P21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="20" t="s">
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="19" t="s">
+      <c r="U21" s="23"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
       <c r="AE21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF21" s="19" t="s">
+      <c r="AF21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19" t="s">
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19" t="s">
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
     </row>
     <row r="22" spans="2:43">
       <c r="B22" s="4"/>
@@ -5284,17 +5284,17 @@
       <c r="P36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q36" s="19" t="s">
+      <c r="Q36" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -5303,34 +5303,34 @@
       <c r="B37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="P37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -5339,58 +5339,58 @@
       <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="P38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="20" t="s">
+      <c r="R38" s="23"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U38" s="21"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="19" t="s">
+      <c r="U38" s="23"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
     </row>
     <row r="39" spans="2:43">
       <c r="B39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19" t="s">
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="5" t="s">
         <v>8</v>
@@ -5422,17 +5422,17 @@
       <c r="AE39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF39" s="19" t="s">
+      <c r="AF39" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
@@ -5502,17 +5502,17 @@
       <c r="AE40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF40" s="19" t="s">
+      <c r="AF40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
@@ -5554,21 +5554,21 @@
       <c r="AE41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF41" s="19" t="s">
+      <c r="AF41" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19" t="s">
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19" t="s">
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
     </row>
     <row r="42" spans="2:43">
       <c r="AE42" s="4"/>
@@ -5652,54 +5652,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="AL41:AN41"/>
+    <mergeCell ref="AF39:AN39"/>
+    <mergeCell ref="AF40:AN40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Q36:Y36"/>
+    <mergeCell ref="Q37:Y37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="AF2:AQ2"/>
+    <mergeCell ref="AF3:AQ3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AL21:AN21"/>
+    <mergeCell ref="AF19:AN19"/>
+    <mergeCell ref="AF20:AN20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Q19:Y19"/>
+    <mergeCell ref="Q20:Y20"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Q19:Y19"/>
-    <mergeCell ref="Q20:Y20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="AL21:AN21"/>
-    <mergeCell ref="AF19:AN19"/>
-    <mergeCell ref="AF20:AN20"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AF2:AQ2"/>
-    <mergeCell ref="AF3:AQ3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Q36:Y36"/>
-    <mergeCell ref="Q37:Y37"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="AL41:AN41"/>
-    <mergeCell ref="AF39:AN39"/>
-    <mergeCell ref="AF40:AN40"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5725,178 +5725,178 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="P2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
       <c r="AD2" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:42">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="P3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
       <c r="AD3" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23" t="s">
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
       <c r="AD4" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AE4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23" t="s">
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23" t="s">
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23" t="s">
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
     </row>
     <row r="5" spans="2:42">
       <c r="C5" t="s">
@@ -6514,51 +6514,51 @@
       <c r="B19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="P19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AD19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AE19" s="19" t="s">
+      <c r="AE19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
@@ -6567,51 +6567,51 @@
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="P20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AD20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE20" s="19" t="s">
+      <c r="AE20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
@@ -6620,57 +6620,57 @@
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
       <c r="P21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19" t="s">
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19" t="s">
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
       <c r="AD21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE21" s="19" t="s">
+      <c r="AE21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19" t="s">
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19" t="s">
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
     </row>
     <row r="22" spans="2:42">
       <c r="C22" s="5" t="s">
@@ -7799,135 +7799,135 @@
       <c r="AE35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF35" s="19" t="s">
+      <c r="AF35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
     </row>
     <row r="36" spans="2:40">
       <c r="Q36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R36" s="19" t="s">
+      <c r="R36" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
       <c r="AE36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF36" s="19" t="s">
+      <c r="AF36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="19"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
     </row>
     <row r="37" spans="2:40">
       <c r="B37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="Q37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R37" s="19" t="s">
+      <c r="R37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
       <c r="AE37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF37" s="19" t="s">
+      <c r="AF37" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19" t="s">
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19" t="s">
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AM37" s="19"/>
-      <c r="AN37" s="19"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
     </row>
     <row r="38" spans="2:40">
       <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="Q38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R38" s="19" t="s">
+      <c r="R38" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19" t="s">
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19" t="s">
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="5" t="s">
         <v>8</v>
@@ -7961,21 +7961,21 @@
       <c r="B39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19" t="s">
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="5" t="s">
         <v>8</v>
@@ -8143,54 +8143,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AF35:AN35"/>
+    <mergeCell ref="AF36:AN36"/>
+    <mergeCell ref="AF37:AH37"/>
+    <mergeCell ref="AI37:AK37"/>
+    <mergeCell ref="AL37:AN37"/>
+    <mergeCell ref="R36:Z36"/>
+    <mergeCell ref="R37:Z37"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AE19:AM19"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Q19:Y19"/>
+    <mergeCell ref="Q20:Y20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Q19:Y19"/>
-    <mergeCell ref="Q20:Y20"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AE3:AP3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="R36:Z36"/>
-    <mergeCell ref="R37:Z37"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AF35:AN35"/>
-    <mergeCell ref="AF36:AN36"/>
-    <mergeCell ref="AF37:AH37"/>
-    <mergeCell ref="AI37:AK37"/>
-    <mergeCell ref="AL37:AN37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8215,177 +8215,177 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="P2" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
       <c r="AD2" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:42">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="P3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
       <c r="AD3" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23" t="s">
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
       <c r="AD4" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AE4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23" t="s">
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23" t="s">
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23" t="s">
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
     </row>
     <row r="5" spans="2:42">
       <c r="C5" t="s">
@@ -9003,51 +9003,51 @@
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="P18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AD18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AE18" s="19" t="s">
+      <c r="AE18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
@@ -9056,51 +9056,51 @@
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="P19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AD19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE19" s="19" t="s">
+      <c r="AE19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
@@ -9109,57 +9109,57 @@
       <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="20" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
       <c r="P20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="21"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="20" t="s">
+      <c r="R20" s="23"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U20" s="21"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="19" t="s">
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
       <c r="AD20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE20" s="19" t="s">
+      <c r="AE20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19" t="s">
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19" t="s">
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
     </row>
     <row r="21" spans="2:42">
       <c r="B21" s="4"/>
@@ -10170,74 +10170,74 @@
         <v>26</v>
       </c>
       <c r="C32" s="16">
-        <f>AVERAGE(C22:C31)</f>
+        <f t="shared" ref="C32:K32" si="0">AVERAGE(C22:C31)</f>
         <v>1.7</v>
       </c>
       <c r="D32" s="16">
-        <f>AVERAGE(D22:D31)</f>
+        <f t="shared" si="0"/>
         <v>1390.3</v>
       </c>
       <c r="E32" s="16">
-        <f>AVERAGE(E22:E31)</f>
+        <f t="shared" si="0"/>
         <v>228.5</v>
       </c>
       <c r="F32" s="16">
-        <f>AVERAGE(F22:F31)</f>
+        <f t="shared" si="0"/>
         <v>2.4989999999999997</v>
       </c>
       <c r="G32" s="16">
-        <f>AVERAGE(G22:G31)</f>
+        <f t="shared" si="0"/>
         <v>1932.9</v>
       </c>
       <c r="H32" s="16">
-        <f>AVERAGE(H22:H31)</f>
+        <f t="shared" si="0"/>
         <v>228.1</v>
       </c>
       <c r="I32" s="16">
-        <f>AVERAGE(I22:I31)</f>
+        <f t="shared" si="0"/>
         <v>1.9009999999999998</v>
       </c>
       <c r="J32" s="16">
-        <f>AVERAGE(J22:J31)</f>
+        <f t="shared" si="0"/>
         <v>1473.1</v>
       </c>
       <c r="K32" s="16">
-        <f>AVERAGE(K22:K31)</f>
+        <f t="shared" si="0"/>
         <v>227.6</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" ref="Q32:X32" si="0">AVERAGE(Q22:Q31)</f>
+        <f t="shared" ref="Q32:X32" si="1">AVERAGE(Q22:Q31)</f>
         <v>6.5970000000000013</v>
       </c>
       <c r="R32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5522</v>
       </c>
       <c r="S32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>461.3</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9830000000000005</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8163.8</v>
       </c>
       <c r="V32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>460.5</v>
       </c>
       <c r="W32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.403000000000002</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6283.9</v>
       </c>
       <c r="Y32" s="16">
@@ -10248,35 +10248,35 @@
         <v>27</v>
       </c>
       <c r="AE32" s="16">
-        <f t="shared" ref="AE32:AL32" si="1">AVERAGE(AE22:AE31)</f>
+        <f t="shared" ref="AE32:AL32" si="2">AVERAGE(AE22:AE31)</f>
         <v>35.418999999999997</v>
       </c>
       <c r="AF32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21319.599999999999</v>
       </c>
       <c r="AG32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>914.6</v>
       </c>
       <c r="AH32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.819999999999993</v>
       </c>
       <c r="AI32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34200.1</v>
       </c>
       <c r="AJ32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>915.6</v>
       </c>
       <c r="AK32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.433000000000007</v>
       </c>
       <c r="AL32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24708</v>
       </c>
       <c r="AM32" s="16">
@@ -10288,17 +10288,17 @@
       <c r="AD36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AE36" s="19" t="s">
+      <c r="AE36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
@@ -10307,34 +10307,34 @@
       <c r="P37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AD37" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AE37" s="19" t="s">
+      <c r="AE37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
@@ -10343,92 +10343,92 @@
       <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="P38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q38" s="19" t="s">
+      <c r="Q38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AD38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AE38" s="19" t="s">
+      <c r="AE38" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19" t="s">
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19" t="s">
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
     </row>
     <row r="39" spans="2:42">
       <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="P39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q39" s="19" t="s">
+      <c r="Q39" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19" t="s">
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19" t="s">
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
       <c r="AE39" s="5" t="s">
         <v>8</v>
       </c>
@@ -10461,21 +10461,21 @@
       <c r="B40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="20" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="19" t="s">
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
       <c r="Q40" s="5" t="s">
         <v>8</v>
       </c>
@@ -10652,21 +10652,27 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AE36:AM36"/>
-    <mergeCell ref="AE37:AM37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Q37:Y37"/>
-    <mergeCell ref="Q38:Y38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Q19:Y19"/>
+    <mergeCell ref="Q18:Y18"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AE19:AM19"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="Q3:AB3"/>
     <mergeCell ref="Q4:S4"/>
@@ -10679,27 +10685,21 @@
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AK4:AM4"/>
     <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Q19:Y19"/>
-    <mergeCell ref="Q18:Y18"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Q37:Y37"/>
+    <mergeCell ref="Q38:Y38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AE36:AM36"/>
+    <mergeCell ref="AE37:AM37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10728,178 +10728,178 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="P2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
       <c r="AD2" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:42">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="P3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
       <c r="AD3" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23" t="s">
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
       <c r="AD4" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AE4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23" t="s">
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23" t="s">
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23" t="s">
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
     </row>
     <row r="5" spans="2:42">
       <c r="C5" t="s">
@@ -11409,51 +11409,51 @@
       <c r="B18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="P18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AE18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF18" s="19" t="s">
+      <c r="AF18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
@@ -11462,51 +11462,51 @@
       <c r="B19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="P19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AE19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF19" s="19" t="s">
+      <c r="AF19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
@@ -11515,60 +11515,60 @@
       <c r="B20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
       <c r="P20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19" t="s">
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19" t="s">
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
       <c r="AE20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF20" s="19" t="s">
+      <c r="AF20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19" t="s">
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19" t="s">
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
     </row>
     <row r="21" spans="2:43">
       <c r="C21" s="5" t="s">
@@ -12578,74 +12578,74 @@
         <v>27</v>
       </c>
       <c r="C32" s="16">
-        <f>AVERAGE(C22:C31)</f>
+        <f t="shared" ref="C32:K32" si="0">AVERAGE(C22:C31)</f>
         <v>1.8989999999999998</v>
       </c>
       <c r="D32" s="16">
-        <f>AVERAGE(D22:D31)</f>
+        <f t="shared" si="0"/>
         <v>1480.6</v>
       </c>
       <c r="E32" s="16">
-        <f>AVERAGE(E22:E31)</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="F32" s="16">
-        <f>AVERAGE(F22:F31)</f>
+        <f t="shared" si="0"/>
         <v>2.4980000000000002</v>
       </c>
       <c r="G32" s="16">
-        <f>AVERAGE(G22:G31)</f>
+        <f t="shared" si="0"/>
         <v>1686.8</v>
       </c>
       <c r="H32" s="16">
-        <f>AVERAGE(H22:H31)</f>
+        <f t="shared" si="0"/>
         <v>183.1</v>
       </c>
       <c r="I32" s="16">
-        <f>AVERAGE(I22:I31)</f>
+        <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="J32" s="16">
-        <f>AVERAGE(J22:J31)</f>
+        <f t="shared" si="0"/>
         <v>1464.2</v>
       </c>
       <c r="K32" s="16">
-        <f>AVERAGE(K22:K31)</f>
+        <f t="shared" si="0"/>
         <v>183.4</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" ref="Q32:X32" si="0">AVERAGE(Q22:Q31)</f>
+        <f t="shared" ref="Q32:X32" si="1">AVERAGE(Q22:Q31)</f>
         <v>8.1969999999999992</v>
       </c>
       <c r="R32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6376.1</v>
       </c>
       <c r="S32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>372.7</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.190999999999999</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8111.7</v>
       </c>
       <c r="V32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>369</v>
       </c>
       <c r="W32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6740000000000013</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6337.1</v>
       </c>
       <c r="Y32" s="16">
@@ -12659,35 +12659,35 @@
         <v>27</v>
       </c>
       <c r="AF32" s="16">
-        <f t="shared" ref="AF32:AM32" si="1">AVERAGE(AF22:AF31)</f>
+        <f t="shared" ref="AF32:AM32" si="2">AVERAGE(AF22:AF31)</f>
         <v>30.349</v>
       </c>
       <c r="AG32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24830.6</v>
       </c>
       <c r="AH32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>739.4</v>
       </c>
       <c r="AI32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.316000000000003</v>
       </c>
       <c r="AJ32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35301</v>
       </c>
       <c r="AK32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>744.5</v>
       </c>
       <c r="AL32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.353000000000002</v>
       </c>
       <c r="AM32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24702.5</v>
       </c>
       <c r="AN32" s="16">
@@ -12699,17 +12699,17 @@
       <c r="B36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -12718,51 +12718,51 @@
       <c r="B37" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="P37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AD37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AE37" s="19" t="s">
+      <c r="AE37" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
@@ -12771,52 +12771,52 @@
       <c r="B38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
       <c r="P38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q38" s="19" t="s">
+      <c r="Q38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AD38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE38" s="19" t="s">
+      <c r="AE38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
@@ -12852,39 +12852,39 @@
       <c r="P39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q39" s="20" t="s">
+      <c r="Q39" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="20" t="s">
+      <c r="R39" s="23"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="19" t="s">
+      <c r="U39" s="23"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
       <c r="AD39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE39" s="19" t="s">
+      <c r="AE39" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19" t="s">
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19" t="s">
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
     </row>
     <row r="40" spans="2:42">
       <c r="B40" s="18" t="s">
@@ -12989,7 +12989,7 @@
       <c r="S41" s="5">
         <v>363</v>
       </c>
-      <c r="T41" s="26">
+      <c r="T41" s="19">
         <f>AVERAGE(T31:T40)</f>
         <v>10.580500000000001</v>
       </c>
@@ -12999,7 +12999,7 @@
       <c r="V41" s="5">
         <v>363</v>
       </c>
-      <c r="W41" s="26">
+      <c r="W41" s="19">
         <f>AVERAGE(Z6:Z15)</f>
         <v>7.2960000000000012</v>
       </c>
@@ -13058,55 +13058,55 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AK39:AM39"/>
-    <mergeCell ref="AE37:AM37"/>
-    <mergeCell ref="AE38:AM38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Q37:Y37"/>
-    <mergeCell ref="Q38:Y38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="AL20:AN20"/>
-    <mergeCell ref="AF19:AN19"/>
-    <mergeCell ref="AF18:AN18"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="T20:V20"/>
     <mergeCell ref="W20:Y20"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="Q18:Y18"/>
     <mergeCell ref="Q19:Y19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AE3:AP3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="AL20:AN20"/>
+    <mergeCell ref="AF19:AN19"/>
+    <mergeCell ref="AF18:AN18"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Q37:Y37"/>
+    <mergeCell ref="Q38:Y38"/>
+    <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AK39:AM39"/>
+    <mergeCell ref="AE37:AM37"/>
+    <mergeCell ref="AE38:AM38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Wyniki2.xlsx
+++ b/doc/Wyniki2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa0" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapa1" sheetId="2" r:id="rId2"/>
+    <sheet name="Mapa1 - pobijana" sheetId="2" r:id="rId2"/>
     <sheet name="Mapa2" sheetId="3" r:id="rId3"/>
     <sheet name="Mapa3" sheetId="4" r:id="rId4"/>
     <sheet name="Mapa4" sheetId="5" r:id="rId5"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AP53"/>
   <sheetViews>
-    <sheetView topLeftCell="Z19" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20:AM34"/>
+    <sheetView topLeftCell="T19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3192,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA28" workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39:AN43"/>
+    <sheetView topLeftCell="O19" workbookViewId="0">
+      <selection activeCell="AH50" sqref="AH50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5709,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP51"/>
   <sheetViews>
-    <sheetView topLeftCell="Y19" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23:AD33"/>
+    <sheetView topLeftCell="T19" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8200,8 +8200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP52"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18:Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10709,7 +10709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="W22" workbookViewId="0">
       <selection activeCell="AE18" sqref="AE18:AE20"/>
     </sheetView>
   </sheetViews>
